--- a/SGF.xlsx
+++ b/SGF.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klaseter3\projects\school\data_parse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klaseter3\projects\school\4460_data_parse\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="82">
   <si>
     <t/>
   </si>
@@ -213,9 +213,6 @@
     <t>Total Expenditure</t>
   </si>
   <si>
-    <t xml:space="preserve">  General Expenditure, by Function:</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Education</t>
   </si>
   <si>
@@ -252,12 +249,6 @@
     <t xml:space="preserve">    Other and Unallocable</t>
   </si>
   <si>
-    <t xml:space="preserve">  Utility Expenditure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Liquor Stores Expenditure</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Insurance Trust Expenditure</t>
   </si>
   <si>
@@ -274,6 +265,9 @@
   </si>
   <si>
     <t xml:space="preserve">    All Other Taxes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  General Expenditure</t>
   </si>
 </sst>
 </file>
@@ -680,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ38"/>
+  <dimension ref="A1:AZ35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1333,7 +1327,7 @@
     </row>
     <row r="5" spans="1:52" ht="12" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B5" s="6">
         <v>393764504</v>
@@ -1491,7 +1485,7 @@
     </row>
     <row r="6" spans="1:52" ht="11.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B6" s="6">
         <v>55460732</v>
@@ -1649,7 +1643,7 @@
     </row>
     <row r="7" spans="1:52" ht="12" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B7" s="6">
         <v>354540257</v>
@@ -1807,7 +1801,7 @@
     </row>
     <row r="8" spans="1:52" ht="12" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B8" s="6">
         <v>43311852</v>
@@ -2281,7 +2275,7 @@
     </row>
     <row r="11" spans="1:52" ht="12" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B11" s="6">
         <v>485235115</v>
@@ -3071,472 +3065,476 @@
     </row>
     <row r="16" spans="1:52" ht="12" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="V16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="W16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="X16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ16" s="5" t="s">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="B16" s="9">
+        <v>2005911667</v>
+      </c>
+      <c r="C16" s="7">
+        <v>28203758</v>
+      </c>
+      <c r="D16" s="7">
+        <v>12214598</v>
+      </c>
+      <c r="E16" s="7">
+        <v>31968081</v>
+      </c>
+      <c r="F16" s="7">
+        <v>19522252</v>
+      </c>
+      <c r="G16" s="7">
+        <v>283572491</v>
+      </c>
+      <c r="H16" s="7">
+        <v>28743913</v>
+      </c>
+      <c r="I16" s="7">
+        <v>29302715</v>
+      </c>
+      <c r="J16" s="7">
+        <v>8648250</v>
+      </c>
+      <c r="K16" s="7">
+        <v>80436036</v>
+      </c>
+      <c r="L16" s="7">
+        <v>45483779</v>
+      </c>
+      <c r="M16" s="7">
+        <v>11477711</v>
+      </c>
+      <c r="N16" s="7">
+        <v>8530858</v>
+      </c>
+      <c r="O16" s="7">
+        <v>75324720</v>
+      </c>
+      <c r="P16" s="7">
+        <v>36793639</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>20517934</v>
+      </c>
+      <c r="R16" s="7">
+        <v>16436706</v>
+      </c>
+      <c r="S16" s="7">
+        <v>28887783</v>
+      </c>
+      <c r="T16" s="7">
+        <v>32037578</v>
+      </c>
+      <c r="U16" s="7">
+        <v>8950407</v>
+      </c>
+      <c r="V16" s="7">
+        <v>39556993</v>
+      </c>
+      <c r="W16" s="7">
+        <v>56772774</v>
+      </c>
+      <c r="X16" s="7">
+        <v>62945494</v>
+      </c>
+      <c r="Y16" s="7">
+        <v>39943492</v>
+      </c>
+      <c r="Z16" s="7">
+        <v>20101926</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>30451378</v>
+      </c>
+      <c r="AB16" s="7">
+        <v>7075417</v>
+      </c>
+      <c r="AC16" s="7">
+        <v>9880837</v>
+      </c>
+      <c r="AD16" s="7">
+        <v>13273807</v>
+      </c>
+      <c r="AE16" s="7">
+        <v>7420420</v>
+      </c>
+      <c r="AF16" s="7">
+        <v>67362610</v>
+      </c>
+      <c r="AG16" s="7">
+        <v>17200474</v>
+      </c>
+      <c r="AH16" s="7">
+        <v>184040200</v>
+      </c>
+      <c r="AI16" s="7">
+        <v>53625862</v>
+      </c>
+      <c r="AJ16" s="7">
+        <v>6410161</v>
+      </c>
+      <c r="AK16" s="7">
+        <v>76291671</v>
+      </c>
+      <c r="AL16" s="7">
+        <v>22920374</v>
+      </c>
+      <c r="AM16" s="7">
+        <v>26850084</v>
+      </c>
+      <c r="AN16" s="7">
+        <v>87532654</v>
+      </c>
+      <c r="AO16" s="7">
+        <v>8189015</v>
+      </c>
+      <c r="AP16" s="7">
+        <v>28245704</v>
+      </c>
+      <c r="AQ16" s="7">
+        <v>4476725</v>
+      </c>
+      <c r="AR16" s="7">
+        <v>30586320</v>
+      </c>
+      <c r="AS16" s="7">
+        <v>124929538</v>
+      </c>
+      <c r="AT16" s="7">
+        <v>16822502</v>
+      </c>
+      <c r="AU16" s="7">
+        <v>6018247</v>
+      </c>
+      <c r="AV16" s="7">
+        <v>47614065</v>
+      </c>
+      <c r="AW16" s="7">
+        <v>45725863</v>
+      </c>
+      <c r="AX16" s="7">
+        <v>13234155</v>
+      </c>
+      <c r="AY16" s="7">
+        <v>37524804</v>
+      </c>
+      <c r="AZ16" s="7">
+        <v>5834892</v>
       </c>
     </row>
     <row r="17" spans="1:52" ht="12" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="B17" s="9">
-        <v>2005911667</v>
-      </c>
-      <c r="C17" s="7">
-        <v>28203758</v>
-      </c>
-      <c r="D17" s="7">
-        <v>12214598</v>
-      </c>
-      <c r="E17" s="7">
-        <v>31968081</v>
-      </c>
-      <c r="F17" s="7">
-        <v>19522252</v>
-      </c>
-      <c r="G17" s="7">
-        <v>283572491</v>
-      </c>
-      <c r="H17" s="7">
-        <v>28743913</v>
-      </c>
-      <c r="I17" s="7">
-        <v>29302715</v>
-      </c>
-      <c r="J17" s="7">
-        <v>8648250</v>
-      </c>
-      <c r="K17" s="7">
-        <v>80436036</v>
-      </c>
-      <c r="L17" s="7">
-        <v>45483779</v>
-      </c>
-      <c r="M17" s="7">
-        <v>11477711</v>
-      </c>
-      <c r="N17" s="7">
-        <v>8530858</v>
-      </c>
-      <c r="O17" s="7">
-        <v>75324720</v>
-      </c>
-      <c r="P17" s="7">
-        <v>36793639</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>20517934</v>
-      </c>
-      <c r="R17" s="7">
-        <v>16436706</v>
-      </c>
-      <c r="S17" s="7">
-        <v>28887783</v>
-      </c>
-      <c r="T17" s="7">
-        <v>32037578</v>
-      </c>
-      <c r="U17" s="7">
-        <v>8950407</v>
-      </c>
-      <c r="V17" s="7">
-        <v>39556993</v>
-      </c>
-      <c r="W17" s="7">
-        <v>56772774</v>
-      </c>
-      <c r="X17" s="7">
-        <v>62945494</v>
-      </c>
-      <c r="Y17" s="7">
-        <v>39943492</v>
-      </c>
-      <c r="Z17" s="7">
-        <v>20101926</v>
-      </c>
-      <c r="AA17" s="7">
-        <v>30451378</v>
-      </c>
-      <c r="AB17" s="7">
-        <v>7075417</v>
-      </c>
-      <c r="AC17" s="7">
-        <v>9880837</v>
-      </c>
-      <c r="AD17" s="7">
-        <v>13273807</v>
-      </c>
-      <c r="AE17" s="7">
-        <v>7420420</v>
-      </c>
-      <c r="AF17" s="7">
-        <v>67362610</v>
-      </c>
-      <c r="AG17" s="7">
-        <v>17200474</v>
-      </c>
-      <c r="AH17" s="7">
-        <v>184040200</v>
-      </c>
-      <c r="AI17" s="7">
-        <v>53625862</v>
-      </c>
-      <c r="AJ17" s="7">
-        <v>6410161</v>
-      </c>
-      <c r="AK17" s="7">
-        <v>76291671</v>
-      </c>
-      <c r="AL17" s="7">
-        <v>22920374</v>
-      </c>
-      <c r="AM17" s="7">
-        <v>26850084</v>
-      </c>
-      <c r="AN17" s="7">
-        <v>87532654</v>
-      </c>
-      <c r="AO17" s="7">
-        <v>8189015</v>
-      </c>
-      <c r="AP17" s="7">
-        <v>28245704</v>
-      </c>
-      <c r="AQ17" s="7">
-        <v>4476725</v>
-      </c>
-      <c r="AR17" s="7">
-        <v>30586320</v>
-      </c>
-      <c r="AS17" s="7">
-        <v>124929538</v>
-      </c>
-      <c r="AT17" s="7">
-        <v>16822502</v>
-      </c>
-      <c r="AU17" s="7">
-        <v>6018247</v>
-      </c>
-      <c r="AV17" s="7">
-        <v>47614065</v>
-      </c>
-      <c r="AW17" s="7">
-        <v>45725863</v>
-      </c>
-      <c r="AX17" s="7">
-        <v>13234155</v>
-      </c>
-      <c r="AY17" s="7">
-        <v>37524804</v>
-      </c>
-      <c r="AZ17" s="7">
-        <v>5834892</v>
+        <v>1683170060</v>
+      </c>
+      <c r="C17" s="9">
+        <v>24601701</v>
+      </c>
+      <c r="D17" s="9">
+        <v>10707194</v>
+      </c>
+      <c r="E17" s="9">
+        <v>27750523</v>
+      </c>
+      <c r="F17" s="9">
+        <v>17559746</v>
+      </c>
+      <c r="G17" s="9">
+        <v>233454218</v>
+      </c>
+      <c r="H17" s="9">
+        <v>23189078</v>
+      </c>
+      <c r="I17" s="9">
+        <v>23719309</v>
+      </c>
+      <c r="J17" s="9">
+        <v>7782971</v>
+      </c>
+      <c r="K17" s="9">
+        <v>71097679</v>
+      </c>
+      <c r="L17" s="9">
+        <v>38702490</v>
+      </c>
+      <c r="M17" s="9">
+        <v>10098104</v>
+      </c>
+      <c r="N17" s="9">
+        <v>7378235</v>
+      </c>
+      <c r="O17" s="9">
+        <v>61221951</v>
+      </c>
+      <c r="P17" s="9">
+        <v>33450122</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>17901551</v>
+      </c>
+      <c r="R17" s="9">
+        <v>14515864</v>
+      </c>
+      <c r="S17" s="9">
+        <v>24457976</v>
+      </c>
+      <c r="T17" s="9">
+        <v>27799897</v>
+      </c>
+      <c r="U17" s="9">
+        <v>7876981</v>
+      </c>
+      <c r="V17" s="9">
+        <v>34170869</v>
+      </c>
+      <c r="W17" s="9">
+        <v>46360151</v>
+      </c>
+      <c r="X17" s="9">
+        <v>53549642</v>
+      </c>
+      <c r="Y17" s="9">
+        <v>35058976</v>
+      </c>
+      <c r="Z17" s="9">
+        <v>17386707</v>
+      </c>
+      <c r="AA17" s="9">
+        <v>26039006</v>
+      </c>
+      <c r="AB17" s="9">
+        <v>6060601</v>
+      </c>
+      <c r="AC17" s="9">
+        <v>9184453</v>
+      </c>
+      <c r="AD17" s="9">
+        <v>10639400</v>
+      </c>
+      <c r="AE17" s="9">
+        <v>6207431</v>
+      </c>
+      <c r="AF17" s="9">
+        <v>50052284</v>
+      </c>
+      <c r="AG17" s="9">
+        <v>15015244</v>
+      </c>
+      <c r="AH17" s="9">
+        <v>147156113</v>
+      </c>
+      <c r="AI17" s="9">
+        <v>46102728</v>
+      </c>
+      <c r="AJ17" s="9">
+        <v>5786402</v>
+      </c>
+      <c r="AK17" s="9">
+        <v>59501507</v>
+      </c>
+      <c r="AL17" s="9">
+        <v>19579099</v>
+      </c>
+      <c r="AM17" s="9">
+        <v>21465429</v>
+      </c>
+      <c r="AN17" s="9">
+        <v>72244141</v>
+      </c>
+      <c r="AO17" s="9">
+        <v>6562768</v>
+      </c>
+      <c r="AP17" s="9">
+        <v>22331442</v>
+      </c>
+      <c r="AQ17" s="9">
+        <v>4011086</v>
+      </c>
+      <c r="AR17" s="9">
+        <v>27831207</v>
+      </c>
+      <c r="AS17" s="9">
+        <v>108024926</v>
+      </c>
+      <c r="AT17" s="9">
+        <v>14956224</v>
+      </c>
+      <c r="AU17" s="9">
+        <v>5607879</v>
+      </c>
+      <c r="AV17" s="9">
+        <v>42529852</v>
+      </c>
+      <c r="AW17" s="9">
+        <v>37864966</v>
+      </c>
+      <c r="AX17" s="9">
+        <v>11708850</v>
+      </c>
+      <c r="AY17" s="9">
+        <v>31878459</v>
+      </c>
+      <c r="AZ17" s="9">
+        <v>5036628</v>
       </c>
     </row>
     <row r="18" spans="1:52" ht="12" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="9">
-        <v>1683170060</v>
-      </c>
-      <c r="C18" s="9">
-        <v>24601701</v>
-      </c>
-      <c r="D18" s="9">
-        <v>10707194</v>
-      </c>
-      <c r="E18" s="9">
-        <v>27750523</v>
-      </c>
-      <c r="F18" s="9">
-        <v>17559746</v>
-      </c>
-      <c r="G18" s="9">
-        <v>233454218</v>
-      </c>
-      <c r="H18" s="9">
-        <v>23189078</v>
-      </c>
-      <c r="I18" s="9">
-        <v>23719309</v>
-      </c>
-      <c r="J18" s="9">
-        <v>7782971</v>
-      </c>
-      <c r="K18" s="9">
-        <v>71097679</v>
-      </c>
-      <c r="L18" s="9">
-        <v>38702490</v>
-      </c>
-      <c r="M18" s="9">
-        <v>10098104</v>
-      </c>
-      <c r="N18" s="9">
-        <v>7378235</v>
-      </c>
-      <c r="O18" s="9">
-        <v>61221951</v>
-      </c>
-      <c r="P18" s="9">
-        <v>33450122</v>
-      </c>
-      <c r="Q18" s="9">
-        <v>17901551</v>
-      </c>
-      <c r="R18" s="9">
-        <v>14515864</v>
-      </c>
-      <c r="S18" s="9">
-        <v>24457976</v>
-      </c>
-      <c r="T18" s="9">
-        <v>27799897</v>
-      </c>
-      <c r="U18" s="9">
-        <v>7876981</v>
-      </c>
-      <c r="V18" s="9">
-        <v>34170869</v>
-      </c>
-      <c r="W18" s="9">
-        <v>46360151</v>
-      </c>
-      <c r="X18" s="9">
-        <v>53549642</v>
-      </c>
-      <c r="Y18" s="9">
-        <v>35058976</v>
-      </c>
-      <c r="Z18" s="9">
-        <v>17386707</v>
-      </c>
-      <c r="AA18" s="9">
-        <v>26039006</v>
-      </c>
-      <c r="AB18" s="9">
-        <v>6060601</v>
-      </c>
-      <c r="AC18" s="9">
-        <v>9184453</v>
-      </c>
-      <c r="AD18" s="9">
-        <v>10639400</v>
-      </c>
-      <c r="AE18" s="9">
-        <v>6207431</v>
-      </c>
-      <c r="AF18" s="9">
-        <v>50052284</v>
-      </c>
-      <c r="AG18" s="9">
-        <v>15015244</v>
-      </c>
-      <c r="AH18" s="9">
-        <v>147156113</v>
-      </c>
-      <c r="AI18" s="9">
-        <v>46102728</v>
-      </c>
-      <c r="AJ18" s="9">
-        <v>5786402</v>
-      </c>
-      <c r="AK18" s="9">
-        <v>59501507</v>
-      </c>
-      <c r="AL18" s="9">
-        <v>19579099</v>
-      </c>
-      <c r="AM18" s="9">
-        <v>21465429</v>
-      </c>
-      <c r="AN18" s="9">
-        <v>72244141</v>
-      </c>
-      <c r="AO18" s="9">
-        <v>6562768</v>
-      </c>
-      <c r="AP18" s="9">
-        <v>22331442</v>
-      </c>
-      <c r="AQ18" s="9">
-        <v>4011086</v>
-      </c>
-      <c r="AR18" s="9">
-        <v>27831207</v>
-      </c>
-      <c r="AS18" s="9">
-        <v>108024926</v>
-      </c>
-      <c r="AT18" s="9">
-        <v>14956224</v>
-      </c>
-      <c r="AU18" s="9">
-        <v>5607879</v>
-      </c>
-      <c r="AV18" s="9">
-        <v>42529852</v>
-      </c>
-      <c r="AW18" s="9">
-        <v>37864966</v>
-      </c>
-      <c r="AX18" s="9">
-        <v>11708850</v>
-      </c>
-      <c r="AY18" s="9">
-        <v>31878459</v>
-      </c>
-      <c r="AZ18" s="9">
-        <v>5036628</v>
+      <c r="B18" s="6">
+        <v>599151748</v>
+      </c>
+      <c r="C18" s="7">
+        <v>10616535</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2806879</v>
+      </c>
+      <c r="E18" s="7">
+        <v>9423140</v>
+      </c>
+      <c r="F18" s="7">
+        <v>7518389</v>
+      </c>
+      <c r="G18" s="7">
+        <v>80195847</v>
+      </c>
+      <c r="H18" s="7">
+        <v>9478848</v>
+      </c>
+      <c r="I18" s="7">
+        <v>7019066</v>
+      </c>
+      <c r="J18" s="7">
+        <v>2745343</v>
+      </c>
+      <c r="K18" s="7">
+        <v>23904253</v>
+      </c>
+      <c r="L18" s="7">
+        <v>17337702</v>
+      </c>
+      <c r="M18" s="7">
+        <v>3404040</v>
+      </c>
+      <c r="N18" s="7">
+        <v>2658667</v>
+      </c>
+      <c r="O18" s="7">
+        <v>17272058</v>
+      </c>
+      <c r="P18" s="7">
+        <v>14613475</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>6469134</v>
+      </c>
+      <c r="R18" s="7">
+        <v>6057156</v>
+      </c>
+      <c r="S18" s="7">
+        <v>9453475</v>
+      </c>
+      <c r="T18" s="7">
+        <v>8881174</v>
+      </c>
+      <c r="U18" s="7">
+        <v>2019094</v>
+      </c>
+      <c r="V18" s="7">
+        <v>11398463</v>
+      </c>
+      <c r="W18" s="7">
+        <v>13010482</v>
+      </c>
+      <c r="X18" s="7">
+        <v>22972166</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>15026229</v>
+      </c>
+      <c r="Z18" s="7">
+        <v>5456159</v>
+      </c>
+      <c r="AA18" s="7">
+        <v>8952460</v>
+      </c>
+      <c r="AB18" s="7">
+        <v>1856783</v>
+      </c>
+      <c r="AC18" s="7">
+        <v>3367219</v>
+      </c>
+      <c r="AD18" s="7">
+        <v>4365150</v>
+      </c>
+      <c r="AE18" s="7">
+        <v>2068121</v>
+      </c>
+      <c r="AF18" s="7">
+        <v>16426314</v>
+      </c>
+      <c r="AG18" s="7">
+        <v>5406138</v>
+      </c>
+      <c r="AH18" s="7">
+        <v>41151716</v>
+      </c>
+      <c r="AI18" s="7">
+        <v>19250605</v>
+      </c>
+      <c r="AJ18" s="7">
+        <v>1931216</v>
+      </c>
+      <c r="AK18" s="7">
+        <v>21606929</v>
+      </c>
+      <c r="AL18" s="7">
+        <v>7321724</v>
+      </c>
+      <c r="AM18" s="7">
+        <v>7172341</v>
+      </c>
+      <c r="AN18" s="7">
+        <v>22628667</v>
+      </c>
+      <c r="AO18" s="7">
+        <v>1986630</v>
+      </c>
+      <c r="AP18" s="7">
+        <v>8352080</v>
+      </c>
+      <c r="AQ18" s="7">
+        <v>1266106</v>
+      </c>
+      <c r="AR18" s="7">
+        <v>9810510</v>
+      </c>
+      <c r="AS18" s="7">
+        <v>47479191</v>
+      </c>
+      <c r="AT18" s="7">
+        <v>6874554</v>
+      </c>
+      <c r="AU18" s="7">
+        <v>2407364</v>
+      </c>
+      <c r="AV18" s="7">
+        <v>15214402</v>
+      </c>
+      <c r="AW18" s="7">
+        <v>15582462</v>
+      </c>
+      <c r="AX18" s="7">
+        <v>4333893</v>
+      </c>
+      <c r="AY18" s="7">
+        <v>10877543</v>
+      </c>
+      <c r="AZ18" s="7">
+        <v>1723856</v>
       </c>
     </row>
     <row r="19" spans="1:52" ht="12" customHeight="1">
@@ -3544,157 +3542,157 @@
         <v>64</v>
       </c>
       <c r="B19" s="6">
-        <v>599151748</v>
+        <v>519178293</v>
       </c>
       <c r="C19" s="7">
-        <v>10616535</v>
+        <v>6386764</v>
       </c>
       <c r="D19" s="7">
-        <v>2806879</v>
+        <v>2084000</v>
       </c>
       <c r="E19" s="7">
-        <v>9423140</v>
+        <v>8494905</v>
       </c>
       <c r="F19" s="7">
-        <v>7518389</v>
+        <v>5139921</v>
       </c>
       <c r="G19" s="7">
-        <v>80195847</v>
+        <v>80014405</v>
       </c>
       <c r="H19" s="7">
-        <v>9478848</v>
+        <v>5840287</v>
       </c>
       <c r="I19" s="7">
-        <v>7019066</v>
+        <v>7318979</v>
       </c>
       <c r="J19" s="7">
-        <v>2745343</v>
+        <v>1971064</v>
       </c>
       <c r="K19" s="7">
-        <v>23904253</v>
+        <v>22528115</v>
       </c>
       <c r="L19" s="7">
-        <v>17337702</v>
+        <v>11518235</v>
       </c>
       <c r="M19" s="7">
-        <v>3404040</v>
+        <v>2098924</v>
       </c>
       <c r="N19" s="7">
-        <v>2658667</v>
+        <v>2190795</v>
       </c>
       <c r="O19" s="7">
-        <v>17272058</v>
+        <v>20424637</v>
       </c>
       <c r="P19" s="7">
-        <v>14613475</v>
+        <v>10748417</v>
       </c>
       <c r="Q19" s="7">
-        <v>6469134</v>
+        <v>5265106</v>
       </c>
       <c r="R19" s="7">
-        <v>6057156</v>
+        <v>3386863</v>
       </c>
       <c r="S19" s="7">
-        <v>9453475</v>
+        <v>7083731</v>
       </c>
       <c r="T19" s="7">
-        <v>8881174</v>
+        <v>7165251</v>
       </c>
       <c r="U19" s="7">
-        <v>2019094</v>
+        <v>2892491</v>
       </c>
       <c r="V19" s="7">
-        <v>11398463</v>
+        <v>10044675</v>
       </c>
       <c r="W19" s="7">
-        <v>13010482</v>
+        <v>15560077</v>
       </c>
       <c r="X19" s="7">
-        <v>22972166</v>
+        <v>14985940</v>
       </c>
       <c r="Y19" s="7">
-        <v>15026229</v>
+        <v>11323904</v>
       </c>
       <c r="Z19" s="7">
-        <v>5456159</v>
+        <v>5816559</v>
       </c>
       <c r="AA19" s="7">
-        <v>8952460</v>
+        <v>7988161</v>
       </c>
       <c r="AB19" s="7">
-        <v>1856783</v>
+        <v>1421146</v>
       </c>
       <c r="AC19" s="7">
-        <v>3367219</v>
+        <v>2517272</v>
       </c>
       <c r="AD19" s="7">
-        <v>4365150</v>
+        <v>2400389</v>
       </c>
       <c r="AE19" s="7">
-        <v>2068121</v>
+        <v>1682499</v>
       </c>
       <c r="AF19" s="7">
-        <v>16426314</v>
+        <v>14701447</v>
       </c>
       <c r="AG19" s="7">
-        <v>5406138</v>
+        <v>3946347</v>
       </c>
       <c r="AH19" s="7">
-        <v>41151716</v>
+        <v>58009518</v>
       </c>
       <c r="AI19" s="7">
-        <v>19250605</v>
+        <v>12977012</v>
       </c>
       <c r="AJ19" s="7">
-        <v>1931216</v>
+        <v>943371</v>
       </c>
       <c r="AK19" s="7">
-        <v>21606929</v>
+        <v>19186691</v>
       </c>
       <c r="AL19" s="7">
-        <v>7321724</v>
+        <v>6258083</v>
       </c>
       <c r="AM19" s="7">
-        <v>7172341</v>
+        <v>6575475</v>
       </c>
       <c r="AN19" s="7">
-        <v>22628667</v>
+        <v>23078652</v>
       </c>
       <c r="AO19" s="7">
-        <v>1986630</v>
+        <v>2394541</v>
       </c>
       <c r="AP19" s="7">
-        <v>8352080</v>
+        <v>6050877</v>
       </c>
       <c r="AQ19" s="7">
-        <v>1266106</v>
+        <v>971649</v>
       </c>
       <c r="AR19" s="7">
-        <v>9810510</v>
+        <v>10959849</v>
       </c>
       <c r="AS19" s="7">
-        <v>47479191</v>
+        <v>30780705</v>
       </c>
       <c r="AT19" s="7">
-        <v>6874554</v>
+        <v>3017968</v>
       </c>
       <c r="AU19" s="7">
-        <v>2407364</v>
+        <v>1629482</v>
       </c>
       <c r="AV19" s="7">
-        <v>15214402</v>
+        <v>9855058</v>
       </c>
       <c r="AW19" s="7">
-        <v>15582462</v>
+        <v>8389040</v>
       </c>
       <c r="AX19" s="7">
-        <v>4333893</v>
+        <v>3526796</v>
       </c>
       <c r="AY19" s="7">
-        <v>10877543</v>
+        <v>8849077</v>
       </c>
       <c r="AZ19" s="7">
-        <v>1723856</v>
+        <v>783143</v>
       </c>
     </row>
     <row r="20" spans="1:52" ht="12" customHeight="1">
@@ -3702,157 +3700,157 @@
         <v>65</v>
       </c>
       <c r="B20" s="6">
-        <v>519178293</v>
+        <v>67433480</v>
       </c>
       <c r="C20" s="7">
-        <v>6386764</v>
+        <v>2132163</v>
       </c>
       <c r="D20" s="7">
-        <v>2084000</v>
+        <v>79817</v>
       </c>
       <c r="E20" s="7">
-        <v>8494905</v>
+        <v>683817</v>
       </c>
       <c r="F20" s="7">
-        <v>5139921</v>
+        <v>936138</v>
       </c>
       <c r="G20" s="7">
-        <v>80014405</v>
+        <v>9107869</v>
       </c>
       <c r="H20" s="7">
-        <v>5840287</v>
+        <v>710618</v>
       </c>
       <c r="I20" s="7">
-        <v>7318979</v>
+        <v>1288711</v>
       </c>
       <c r="J20" s="7">
-        <v>1971064</v>
+        <v>47575</v>
       </c>
       <c r="K20" s="7">
-        <v>22528115</v>
+        <v>820601</v>
       </c>
       <c r="L20" s="7">
-        <v>11518235</v>
+        <v>948316</v>
       </c>
       <c r="M20" s="7">
-        <v>2098924</v>
+        <v>799790</v>
       </c>
       <c r="N20" s="7">
-        <v>2190795</v>
+        <v>52453</v>
       </c>
       <c r="O20" s="7">
-        <v>20424637</v>
+        <v>1345563</v>
       </c>
       <c r="P20" s="7">
-        <v>10748417</v>
+        <v>160643</v>
       </c>
       <c r="Q20" s="7">
-        <v>5265106</v>
+        <v>1519773</v>
       </c>
       <c r="R20" s="7">
-        <v>3386863</v>
+        <v>1556542</v>
       </c>
       <c r="S20" s="7">
-        <v>7083731</v>
+        <v>1132362</v>
       </c>
       <c r="T20" s="7">
-        <v>7165251</v>
+        <v>1930770</v>
       </c>
       <c r="U20" s="7">
-        <v>2892491</v>
+        <v>111922</v>
       </c>
       <c r="V20" s="7">
-        <v>10044675</v>
+        <v>517097</v>
       </c>
       <c r="W20" s="7">
-        <v>15560077</v>
+        <v>489640</v>
       </c>
       <c r="X20" s="7">
-        <v>14985940</v>
+        <v>3080402</v>
       </c>
       <c r="Y20" s="7">
-        <v>11323904</v>
+        <v>265135</v>
       </c>
       <c r="Z20" s="7">
-        <v>5816559</v>
+        <v>1131700</v>
       </c>
       <c r="AA20" s="7">
-        <v>7988161</v>
+        <v>1683129</v>
       </c>
       <c r="AB20" s="7">
-        <v>1421146</v>
+        <v>49673</v>
       </c>
       <c r="AC20" s="7">
-        <v>2517272</v>
+        <v>261809</v>
       </c>
       <c r="AD20" s="7">
-        <v>2400389</v>
+        <v>265446</v>
       </c>
       <c r="AE20" s="7">
-        <v>1682499</v>
+        <v>49410</v>
       </c>
       <c r="AF20" s="7">
-        <v>14701447</v>
+        <v>2106102</v>
       </c>
       <c r="AG20" s="7">
-        <v>3946347</v>
+        <v>953684</v>
       </c>
       <c r="AH20" s="7">
-        <v>58009518</v>
+        <v>4750662</v>
       </c>
       <c r="AI20" s="7">
-        <v>12977012</v>
+        <v>2020269</v>
       </c>
       <c r="AJ20" s="7">
-        <v>943371</v>
+        <v>53709</v>
       </c>
       <c r="AK20" s="7">
-        <v>19186691</v>
+        <v>3125123</v>
       </c>
       <c r="AL20" s="7">
-        <v>6258083</v>
+        <v>258175</v>
       </c>
       <c r="AM20" s="7">
-        <v>6575475</v>
+        <v>1548755</v>
       </c>
       <c r="AN20" s="7">
-        <v>23078652</v>
+        <v>3789791</v>
       </c>
       <c r="AO20" s="7">
-        <v>2394541</v>
+        <v>66449</v>
       </c>
       <c r="AP20" s="7">
-        <v>6050877</v>
+        <v>1444046</v>
       </c>
       <c r="AQ20" s="7">
-        <v>971649</v>
+        <v>21930</v>
       </c>
       <c r="AR20" s="7">
-        <v>10959849</v>
+        <v>404978</v>
       </c>
       <c r="AS20" s="7">
-        <v>30780705</v>
+        <v>5237650</v>
       </c>
       <c r="AT20" s="7">
-        <v>3017968</v>
-      </c>
-      <c r="AU20" s="7">
-        <v>1629482</v>
+        <v>1180848</v>
+      </c>
+      <c r="AU20" s="8">
+        <v>287</v>
       </c>
       <c r="AV20" s="7">
-        <v>9855058</v>
+        <v>3598411</v>
       </c>
       <c r="AW20" s="7">
-        <v>8389040</v>
+        <v>2160922</v>
       </c>
       <c r="AX20" s="7">
-        <v>3526796</v>
+        <v>126185</v>
       </c>
       <c r="AY20" s="7">
-        <v>8849077</v>
+        <v>1422217</v>
       </c>
       <c r="AZ20" s="7">
-        <v>783143</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="21" spans="1:52" ht="12" customHeight="1">
@@ -3860,157 +3858,157 @@
         <v>66</v>
       </c>
       <c r="B21" s="6">
-        <v>67433480</v>
+        <v>63246831</v>
       </c>
       <c r="C21" s="7">
-        <v>2132163</v>
+        <v>558857</v>
       </c>
       <c r="D21" s="7">
-        <v>79817</v>
+        <v>348730</v>
       </c>
       <c r="E21" s="7">
-        <v>683817</v>
+        <v>1924080</v>
       </c>
       <c r="F21" s="7">
-        <v>936138</v>
+        <v>297457</v>
       </c>
       <c r="G21" s="7">
-        <v>9107869</v>
+        <v>8785009</v>
       </c>
       <c r="H21" s="7">
-        <v>710618</v>
+        <v>1055306</v>
       </c>
       <c r="I21" s="7">
-        <v>1288711</v>
+        <v>950351</v>
       </c>
       <c r="J21" s="7">
-        <v>47575</v>
+        <v>449699</v>
       </c>
       <c r="K21" s="7">
-        <v>820601</v>
+        <v>3763817</v>
       </c>
       <c r="L21" s="7">
-        <v>948316</v>
+        <v>1204357</v>
       </c>
       <c r="M21" s="7">
-        <v>799790</v>
+        <v>494927</v>
       </c>
       <c r="N21" s="7">
-        <v>52453</v>
+        <v>178448</v>
       </c>
       <c r="O21" s="7">
-        <v>1345563</v>
+        <v>2240614</v>
       </c>
       <c r="P21" s="7">
-        <v>160643</v>
+        <v>495892</v>
       </c>
       <c r="Q21" s="7">
-        <v>1519773</v>
+        <v>256786</v>
       </c>
       <c r="R21" s="7">
-        <v>1556542</v>
+        <v>356630</v>
       </c>
       <c r="S21" s="7">
-        <v>1132362</v>
+        <v>691179</v>
       </c>
       <c r="T21" s="7">
-        <v>1930770</v>
+        <v>523905</v>
       </c>
       <c r="U21" s="7">
-        <v>111922</v>
+        <v>484261</v>
       </c>
       <c r="V21" s="7">
-        <v>517097</v>
+        <v>2149504</v>
       </c>
       <c r="W21" s="7">
-        <v>489640</v>
+        <v>1151865</v>
       </c>
       <c r="X21" s="7">
-        <v>3080402</v>
+        <v>1329434</v>
       </c>
       <c r="Y21" s="7">
-        <v>265135</v>
+        <v>431809</v>
       </c>
       <c r="Z21" s="7">
-        <v>1131700</v>
+        <v>403671</v>
       </c>
       <c r="AA21" s="7">
-        <v>1683129</v>
+        <v>1585857</v>
       </c>
       <c r="AB21" s="7">
-        <v>49673</v>
+        <v>175007</v>
       </c>
       <c r="AC21" s="7">
-        <v>261809</v>
+        <v>476668</v>
       </c>
       <c r="AD21" s="7">
-        <v>265446</v>
+        <v>275542</v>
       </c>
       <c r="AE21" s="7">
-        <v>49410</v>
+        <v>140321</v>
       </c>
       <c r="AF21" s="7">
-        <v>2106102</v>
+        <v>1260358</v>
       </c>
       <c r="AG21" s="7">
-        <v>953684</v>
+        <v>491298</v>
       </c>
       <c r="AH21" s="7">
-        <v>4750662</v>
+        <v>9215195</v>
       </c>
       <c r="AI21" s="7">
-        <v>2020269</v>
+        <v>1368833</v>
       </c>
       <c r="AJ21" s="7">
-        <v>53709</v>
+        <v>161118</v>
       </c>
       <c r="AK21" s="7">
-        <v>3125123</v>
+        <v>2493472</v>
       </c>
       <c r="AL21" s="7">
-        <v>258175</v>
+        <v>861552</v>
       </c>
       <c r="AM21" s="7">
-        <v>1548755</v>
+        <v>792133</v>
       </c>
       <c r="AN21" s="7">
-        <v>3789791</v>
+        <v>3080531</v>
       </c>
       <c r="AO21" s="7">
-        <v>66449</v>
+        <v>158767</v>
       </c>
       <c r="AP21" s="7">
-        <v>1444046</v>
+        <v>1011767</v>
       </c>
       <c r="AQ21" s="7">
-        <v>21930</v>
+        <v>178414</v>
       </c>
       <c r="AR21" s="7">
-        <v>404978</v>
+        <v>672883</v>
       </c>
       <c r="AS21" s="7">
-        <v>5237650</v>
+        <v>2774086</v>
       </c>
       <c r="AT21" s="7">
-        <v>1180848</v>
-      </c>
-      <c r="AU21" s="8">
-        <v>287</v>
+        <v>390835</v>
+      </c>
+      <c r="AU21" s="7">
+        <v>235775</v>
       </c>
       <c r="AV21" s="7">
-        <v>3598411</v>
+        <v>1343432</v>
       </c>
       <c r="AW21" s="7">
-        <v>2160922</v>
+        <v>2185121</v>
       </c>
       <c r="AX21" s="7">
-        <v>126185</v>
+        <v>345537</v>
       </c>
       <c r="AY21" s="7">
-        <v>1422217</v>
+        <v>771081</v>
       </c>
       <c r="AZ21" s="7">
-        <v>4403</v>
+        <v>274660</v>
       </c>
     </row>
     <row r="22" spans="1:52" ht="12" customHeight="1">
@@ -4018,157 +4016,157 @@
         <v>67</v>
       </c>
       <c r="B22" s="6">
-        <v>63246831</v>
+        <v>112174050</v>
       </c>
       <c r="C22" s="7">
-        <v>558857</v>
+        <v>1753303</v>
       </c>
       <c r="D22" s="7">
-        <v>348730</v>
+        <v>1152768</v>
       </c>
       <c r="E22" s="7">
-        <v>1924080</v>
+        <v>1971558</v>
       </c>
       <c r="F22" s="7">
-        <v>297457</v>
+        <v>1219251</v>
       </c>
       <c r="G22" s="7">
-        <v>8785009</v>
+        <v>13193489</v>
       </c>
       <c r="H22" s="7">
-        <v>1055306</v>
+        <v>1448635</v>
       </c>
       <c r="I22" s="7">
-        <v>950351</v>
+        <v>1056211</v>
       </c>
       <c r="J22" s="7">
-        <v>449699</v>
+        <v>595377</v>
       </c>
       <c r="K22" s="7">
-        <v>3763817</v>
+        <v>5869267</v>
       </c>
       <c r="L22" s="7">
-        <v>1204357</v>
+        <v>2170602</v>
       </c>
       <c r="M22" s="7">
-        <v>494927</v>
+        <v>409269</v>
       </c>
       <c r="N22" s="7">
-        <v>178448</v>
+        <v>691516</v>
       </c>
       <c r="O22" s="7">
-        <v>2240614</v>
+        <v>4969276</v>
       </c>
       <c r="P22" s="7">
-        <v>495892</v>
+        <v>2530006</v>
       </c>
       <c r="Q22" s="7">
-        <v>256786</v>
+        <v>1658218</v>
       </c>
       <c r="R22" s="7">
-        <v>356630</v>
+        <v>1181586</v>
       </c>
       <c r="S22" s="7">
-        <v>691179</v>
+        <v>2365583</v>
       </c>
       <c r="T22" s="7">
-        <v>523905</v>
+        <v>1716072</v>
       </c>
       <c r="U22" s="7">
-        <v>484261</v>
+        <v>614592</v>
       </c>
       <c r="V22" s="7">
-        <v>2149504</v>
+        <v>1949117</v>
       </c>
       <c r="W22" s="7">
-        <v>1151865</v>
+        <v>2005325</v>
       </c>
       <c r="X22" s="7">
-        <v>1329434</v>
+        <v>2419026</v>
       </c>
       <c r="Y22" s="7">
-        <v>431809</v>
+        <v>2464343</v>
       </c>
       <c r="Z22" s="7">
-        <v>403671</v>
+        <v>1376640</v>
       </c>
       <c r="AA22" s="7">
-        <v>1585857</v>
+        <v>1595271</v>
       </c>
       <c r="AB22" s="7">
-        <v>175007</v>
+        <v>683224</v>
       </c>
       <c r="AC22" s="7">
-        <v>476668</v>
+        <v>754226</v>
       </c>
       <c r="AD22" s="7">
-        <v>275542</v>
+        <v>721780</v>
       </c>
       <c r="AE22" s="7">
-        <v>140321</v>
+        <v>557978</v>
       </c>
       <c r="AF22" s="7">
-        <v>1260358</v>
+        <v>3192396</v>
       </c>
       <c r="AG22" s="7">
-        <v>491298</v>
+        <v>756210</v>
       </c>
       <c r="AH22" s="7">
-        <v>9215195</v>
+        <v>4238973</v>
       </c>
       <c r="AI22" s="7">
-        <v>1368833</v>
+        <v>3688451</v>
       </c>
       <c r="AJ22" s="7">
-        <v>161118</v>
+        <v>1051899</v>
       </c>
       <c r="AK22" s="7">
-        <v>2493472</v>
+        <v>3678390</v>
       </c>
       <c r="AL22" s="7">
-        <v>861552</v>
+        <v>1802547</v>
       </c>
       <c r="AM22" s="7">
-        <v>792133</v>
+        <v>1312821</v>
       </c>
       <c r="AN22" s="7">
-        <v>3080531</v>
+        <v>7601344</v>
       </c>
       <c r="AO22" s="7">
-        <v>158767</v>
+        <v>318630</v>
       </c>
       <c r="AP22" s="7">
-        <v>1011767</v>
+        <v>923605</v>
       </c>
       <c r="AQ22" s="7">
-        <v>178414</v>
+        <v>653007</v>
       </c>
       <c r="AR22" s="7">
-        <v>672883</v>
+        <v>1752119</v>
       </c>
       <c r="AS22" s="7">
-        <v>2774086</v>
+        <v>7536463</v>
       </c>
       <c r="AT22" s="7">
-        <v>390835</v>
+        <v>961772</v>
       </c>
       <c r="AU22" s="7">
-        <v>235775</v>
+        <v>455461</v>
       </c>
       <c r="AV22" s="7">
-        <v>1343432</v>
+        <v>3912825</v>
       </c>
       <c r="AW22" s="7">
-        <v>2185121</v>
+        <v>3183817</v>
       </c>
       <c r="AX22" s="7">
-        <v>345537</v>
+        <v>1102651</v>
       </c>
       <c r="AY22" s="7">
-        <v>771081</v>
+        <v>2409285</v>
       </c>
       <c r="AZ22" s="7">
-        <v>274660</v>
+        <v>547875</v>
       </c>
     </row>
     <row r="23" spans="1:52" ht="12" customHeight="1">
@@ -4176,157 +4174,157 @@
         <v>68</v>
       </c>
       <c r="B23" s="6">
-        <v>112174050</v>
+        <v>15106964</v>
       </c>
       <c r="C23" s="7">
-        <v>1753303</v>
+        <v>160779</v>
       </c>
       <c r="D23" s="7">
-        <v>1152768</v>
+        <v>166917</v>
       </c>
       <c r="E23" s="7">
-        <v>1971558</v>
+        <v>232360</v>
       </c>
       <c r="F23" s="7">
-        <v>1219251</v>
+        <v>109098</v>
       </c>
       <c r="G23" s="7">
-        <v>13193489</v>
+        <v>1600910</v>
       </c>
       <c r="H23" s="7">
-        <v>1448635</v>
+        <v>172792</v>
       </c>
       <c r="I23" s="7">
-        <v>1056211</v>
+        <v>232639</v>
       </c>
       <c r="J23" s="7">
-        <v>595377</v>
+        <v>126436</v>
       </c>
       <c r="K23" s="7">
-        <v>5869267</v>
+        <v>514377</v>
       </c>
       <c r="L23" s="7">
-        <v>2170602</v>
+        <v>319687</v>
       </c>
       <c r="M23" s="7">
-        <v>409269</v>
+        <v>34307</v>
       </c>
       <c r="N23" s="7">
-        <v>691516</v>
+        <v>54577</v>
       </c>
       <c r="O23" s="7">
-        <v>4969276</v>
+        <v>467598</v>
       </c>
       <c r="P23" s="7">
-        <v>2530006</v>
+        <v>237564</v>
       </c>
       <c r="Q23" s="7">
-        <v>1658218</v>
+        <v>96322</v>
       </c>
       <c r="R23" s="7">
-        <v>1181586</v>
+        <v>105054</v>
       </c>
       <c r="S23" s="7">
-        <v>2365583</v>
+        <v>197374</v>
       </c>
       <c r="T23" s="7">
-        <v>1716072</v>
+        <v>356701</v>
       </c>
       <c r="U23" s="7">
-        <v>614592</v>
+        <v>75602</v>
       </c>
       <c r="V23" s="7">
-        <v>1949117</v>
+        <v>550989</v>
       </c>
       <c r="W23" s="7">
-        <v>2005325</v>
+        <v>829770</v>
       </c>
       <c r="X23" s="7">
-        <v>2419026</v>
+        <v>401026</v>
       </c>
       <c r="Y23" s="7">
-        <v>2464343</v>
+        <v>382588</v>
       </c>
       <c r="Z23" s="7">
-        <v>1376640</v>
+        <v>112169</v>
       </c>
       <c r="AA23" s="7">
-        <v>1595271</v>
+        <v>214524</v>
       </c>
       <c r="AB23" s="7">
-        <v>683224</v>
+        <v>51138</v>
       </c>
       <c r="AC23" s="7">
-        <v>754226</v>
+        <v>86623</v>
       </c>
       <c r="AD23" s="7">
-        <v>721780</v>
+        <v>101604</v>
       </c>
       <c r="AE23" s="7">
-        <v>557978</v>
+        <v>56132</v>
       </c>
       <c r="AF23" s="7">
-        <v>3192396</v>
+        <v>818347</v>
       </c>
       <c r="AG23" s="7">
-        <v>756210</v>
+        <v>134511</v>
       </c>
       <c r="AH23" s="7">
-        <v>4238973</v>
+        <v>995306</v>
       </c>
       <c r="AI23" s="7">
-        <v>3688451</v>
+        <v>703083</v>
       </c>
       <c r="AJ23" s="7">
-        <v>1051899</v>
+        <v>35210</v>
       </c>
       <c r="AK23" s="7">
-        <v>3678390</v>
+        <v>318780</v>
       </c>
       <c r="AL23" s="7">
-        <v>1802547</v>
+        <v>233623</v>
       </c>
       <c r="AM23" s="7">
-        <v>1312821</v>
+        <v>183495</v>
       </c>
       <c r="AN23" s="7">
-        <v>7601344</v>
+        <v>911672</v>
       </c>
       <c r="AO23" s="7">
-        <v>318630</v>
+        <v>71704</v>
       </c>
       <c r="AP23" s="7">
-        <v>923605</v>
+        <v>183055</v>
       </c>
       <c r="AQ23" s="7">
-        <v>653007</v>
+        <v>38321</v>
       </c>
       <c r="AR23" s="7">
-        <v>1752119</v>
+        <v>232868</v>
       </c>
       <c r="AS23" s="7">
-        <v>7536463</v>
+        <v>799712</v>
       </c>
       <c r="AT23" s="7">
-        <v>961772</v>
+        <v>143594</v>
       </c>
       <c r="AU23" s="7">
-        <v>455461</v>
+        <v>91112</v>
       </c>
       <c r="AV23" s="7">
-        <v>3912825</v>
+        <v>559409</v>
       </c>
       <c r="AW23" s="7">
-        <v>3183817</v>
+        <v>356847</v>
       </c>
       <c r="AX23" s="7">
-        <v>1102651</v>
+        <v>75101</v>
       </c>
       <c r="AY23" s="7">
-        <v>2409285</v>
+        <v>122600</v>
       </c>
       <c r="AZ23" s="7">
-        <v>547875</v>
+        <v>50957</v>
       </c>
     </row>
     <row r="24" spans="1:52" ht="12" customHeight="1">
@@ -4334,157 +4332,157 @@
         <v>69</v>
       </c>
       <c r="B24" s="6">
-        <v>15106964</v>
+        <v>48407786</v>
       </c>
       <c r="C24" s="7">
-        <v>160779</v>
+        <v>533083</v>
       </c>
       <c r="D24" s="7">
-        <v>166917</v>
+        <v>335234</v>
       </c>
       <c r="E24" s="7">
-        <v>232360</v>
+        <v>829019</v>
       </c>
       <c r="F24" s="7">
-        <v>109098</v>
+        <v>403821</v>
       </c>
       <c r="G24" s="7">
-        <v>1600910</v>
+        <v>7844627</v>
       </c>
       <c r="H24" s="7">
-        <v>172792</v>
+        <v>975698</v>
       </c>
       <c r="I24" s="7">
-        <v>232639</v>
+        <v>669700</v>
       </c>
       <c r="J24" s="7">
-        <v>126436</v>
+        <v>282015</v>
       </c>
       <c r="K24" s="7">
-        <v>514377</v>
+        <v>2145818</v>
       </c>
       <c r="L24" s="7">
-        <v>319687</v>
+        <v>1487452</v>
       </c>
       <c r="M24" s="7">
-        <v>34307</v>
+        <v>200984</v>
       </c>
       <c r="N24" s="7">
-        <v>54577</v>
+        <v>251160</v>
       </c>
       <c r="O24" s="7">
-        <v>467598</v>
+        <v>1327176</v>
       </c>
       <c r="P24" s="7">
-        <v>237564</v>
+        <v>688283</v>
       </c>
       <c r="Q24" s="7">
-        <v>96322</v>
+        <v>334893</v>
       </c>
       <c r="R24" s="7">
-        <v>105054</v>
+        <v>347040</v>
       </c>
       <c r="S24" s="7">
-        <v>197374</v>
+        <v>532134</v>
       </c>
       <c r="T24" s="7">
-        <v>356701</v>
+        <v>701296</v>
       </c>
       <c r="U24" s="7">
-        <v>75602</v>
+        <v>136811</v>
       </c>
       <c r="V24" s="7">
-        <v>550989</v>
+        <v>1396307</v>
       </c>
       <c r="W24" s="7">
-        <v>829770</v>
+        <v>1095858</v>
       </c>
       <c r="X24" s="7">
-        <v>401026</v>
+        <v>1857508</v>
       </c>
       <c r="Y24" s="7">
-        <v>382588</v>
+        <v>514959</v>
       </c>
       <c r="Z24" s="7">
-        <v>112169</v>
+        <v>376455</v>
       </c>
       <c r="AA24" s="7">
-        <v>214524</v>
+        <v>736445</v>
       </c>
       <c r="AB24" s="7">
-        <v>51138</v>
+        <v>191150</v>
       </c>
       <c r="AC24" s="7">
-        <v>86623</v>
+        <v>246519</v>
       </c>
       <c r="AD24" s="7">
-        <v>101604</v>
+        <v>283918</v>
       </c>
       <c r="AE24" s="7">
-        <v>56132</v>
+        <v>112422</v>
       </c>
       <c r="AF24" s="7">
-        <v>818347</v>
+        <v>1436484</v>
       </c>
       <c r="AG24" s="7">
-        <v>134511</v>
+        <v>400947</v>
       </c>
       <c r="AH24" s="7">
-        <v>995306</v>
+        <v>3438227</v>
       </c>
       <c r="AI24" s="7">
-        <v>703083</v>
+        <v>1210318</v>
       </c>
       <c r="AJ24" s="7">
-        <v>35210</v>
+        <v>96683</v>
       </c>
       <c r="AK24" s="7">
-        <v>318780</v>
+        <v>1543631</v>
       </c>
       <c r="AL24" s="7">
-        <v>233623</v>
+        <v>569140</v>
       </c>
       <c r="AM24" s="7">
-        <v>183495</v>
+        <v>730873</v>
       </c>
       <c r="AN24" s="7">
-        <v>911672</v>
+        <v>2119602</v>
       </c>
       <c r="AO24" s="7">
-        <v>71704</v>
+        <v>182888</v>
       </c>
       <c r="AP24" s="7">
-        <v>183055</v>
+        <v>490627</v>
       </c>
       <c r="AQ24" s="7">
-        <v>38321</v>
+        <v>116535</v>
       </c>
       <c r="AR24" s="7">
-        <v>232868</v>
+        <v>889870</v>
       </c>
       <c r="AS24" s="7">
-        <v>799712</v>
+        <v>3701789</v>
       </c>
       <c r="AT24" s="7">
-        <v>143594</v>
+        <v>310560</v>
       </c>
       <c r="AU24" s="7">
-        <v>91112</v>
+        <v>135127</v>
       </c>
       <c r="AV24" s="7">
-        <v>559409</v>
+        <v>1706864</v>
       </c>
       <c r="AW24" s="7">
-        <v>356847</v>
+        <v>954986</v>
       </c>
       <c r="AX24" s="7">
-        <v>75101</v>
+        <v>300693</v>
       </c>
       <c r="AY24" s="7">
-        <v>122600</v>
+        <v>1090920</v>
       </c>
       <c r="AZ24" s="7">
-        <v>50957</v>
+        <v>143237</v>
       </c>
     </row>
     <row r="25" spans="1:52" ht="12" customHeight="1">
@@ -4492,157 +4490,157 @@
         <v>70</v>
       </c>
       <c r="B25" s="6">
-        <v>48407786</v>
+        <v>21345804</v>
       </c>
       <c r="C25" s="7">
-        <v>533083</v>
+        <v>276034</v>
       </c>
       <c r="D25" s="7">
-        <v>335234</v>
+        <v>331740</v>
       </c>
       <c r="E25" s="7">
-        <v>829019</v>
+        <v>263092</v>
       </c>
       <c r="F25" s="7">
-        <v>403821</v>
+        <v>248511</v>
       </c>
       <c r="G25" s="7">
-        <v>7844627</v>
+        <v>4102500</v>
       </c>
       <c r="H25" s="7">
-        <v>975698</v>
+        <v>321265</v>
       </c>
       <c r="I25" s="7">
-        <v>669700</v>
+        <v>164033</v>
       </c>
       <c r="J25" s="7">
-        <v>282015</v>
+        <v>73337</v>
       </c>
       <c r="K25" s="7">
-        <v>2145818</v>
+        <v>1100119</v>
       </c>
       <c r="L25" s="7">
-        <v>1487452</v>
+        <v>454830</v>
       </c>
       <c r="M25" s="7">
-        <v>200984</v>
+        <v>113135</v>
       </c>
       <c r="N25" s="7">
-        <v>251160</v>
+        <v>217916</v>
       </c>
       <c r="O25" s="7">
-        <v>1327176</v>
+        <v>237443</v>
       </c>
       <c r="P25" s="7">
-        <v>688283</v>
+        <v>335053</v>
       </c>
       <c r="Q25" s="7">
-        <v>334893</v>
+        <v>295335</v>
       </c>
       <c r="R25" s="7">
-        <v>347040</v>
+        <v>231678</v>
       </c>
       <c r="S25" s="7">
-        <v>532134</v>
+        <v>333797</v>
       </c>
       <c r="T25" s="7">
-        <v>701296</v>
+        <v>801023</v>
       </c>
       <c r="U25" s="7">
-        <v>136811</v>
+        <v>171924</v>
       </c>
       <c r="V25" s="7">
-        <v>1396307</v>
+        <v>447136</v>
       </c>
       <c r="W25" s="7">
-        <v>1095858</v>
+        <v>343750</v>
       </c>
       <c r="X25" s="7">
-        <v>1857508</v>
+        <v>318918</v>
       </c>
       <c r="Y25" s="7">
-        <v>514959</v>
+        <v>607961</v>
       </c>
       <c r="Z25" s="7">
-        <v>376455</v>
+        <v>291359</v>
       </c>
       <c r="AA25" s="7">
-        <v>736445</v>
+        <v>339286</v>
       </c>
       <c r="AB25" s="7">
-        <v>191150</v>
+        <v>322807</v>
       </c>
       <c r="AC25" s="7">
-        <v>246519</v>
+        <v>251065</v>
       </c>
       <c r="AD25" s="7">
-        <v>283918</v>
+        <v>116153</v>
       </c>
       <c r="AE25" s="7">
-        <v>112422</v>
+        <v>76860</v>
       </c>
       <c r="AF25" s="7">
-        <v>1436484</v>
+        <v>581243</v>
       </c>
       <c r="AG25" s="7">
-        <v>400947</v>
+        <v>182694</v>
       </c>
       <c r="AH25" s="7">
-        <v>3438227</v>
+        <v>423976</v>
       </c>
       <c r="AI25" s="7">
-        <v>1210318</v>
+        <v>511455</v>
       </c>
       <c r="AJ25" s="7">
-        <v>96683</v>
+        <v>329500</v>
       </c>
       <c r="AK25" s="7">
-        <v>1543631</v>
+        <v>390327</v>
       </c>
       <c r="AL25" s="7">
-        <v>569140</v>
+        <v>231332</v>
       </c>
       <c r="AM25" s="7">
-        <v>730873</v>
+        <v>449716</v>
       </c>
       <c r="AN25" s="7">
-        <v>2119602</v>
+        <v>642051</v>
       </c>
       <c r="AO25" s="7">
-        <v>182888</v>
+        <v>59205</v>
       </c>
       <c r="AP25" s="7">
-        <v>490627</v>
+        <v>196531</v>
       </c>
       <c r="AQ25" s="7">
-        <v>116535</v>
+        <v>178255</v>
       </c>
       <c r="AR25" s="7">
-        <v>889870</v>
+        <v>291223</v>
       </c>
       <c r="AS25" s="7">
-        <v>3701789</v>
+        <v>1040736</v>
       </c>
       <c r="AT25" s="7">
-        <v>310560</v>
+        <v>172571</v>
       </c>
       <c r="AU25" s="7">
-        <v>135127</v>
+        <v>81883</v>
       </c>
       <c r="AV25" s="7">
-        <v>1706864</v>
+        <v>248919</v>
       </c>
       <c r="AW25" s="7">
-        <v>954986</v>
+        <v>861649</v>
       </c>
       <c r="AX25" s="7">
-        <v>300693</v>
+        <v>225833</v>
       </c>
       <c r="AY25" s="7">
-        <v>1090920</v>
+        <v>664438</v>
       </c>
       <c r="AZ25" s="7">
-        <v>143237</v>
+        <v>394207</v>
       </c>
     </row>
     <row r="26" spans="1:52" ht="12" customHeight="1">
@@ -4650,157 +4648,157 @@
         <v>71</v>
       </c>
       <c r="B26" s="6">
-        <v>21345804</v>
+        <v>5665892</v>
       </c>
       <c r="C26" s="7">
-        <v>276034</v>
+        <v>20371</v>
       </c>
       <c r="D26" s="7">
-        <v>331740</v>
+        <v>29247</v>
       </c>
       <c r="E26" s="7">
-        <v>263092</v>
+        <v>78339</v>
       </c>
       <c r="F26" s="7">
-        <v>248511</v>
+        <v>58214</v>
       </c>
       <c r="G26" s="7">
-        <v>4102500</v>
+        <v>523095</v>
       </c>
       <c r="H26" s="7">
-        <v>321265</v>
+        <v>83055</v>
       </c>
       <c r="I26" s="7">
-        <v>164033</v>
+        <v>62093</v>
       </c>
       <c r="J26" s="7">
-        <v>73337</v>
+        <v>44014</v>
       </c>
       <c r="K26" s="7">
-        <v>1100119</v>
+        <v>104619</v>
       </c>
       <c r="L26" s="7">
-        <v>454830</v>
+        <v>196605</v>
       </c>
       <c r="M26" s="7">
-        <v>113135</v>
+        <v>95856</v>
       </c>
       <c r="N26" s="7">
-        <v>217916</v>
+        <v>38477</v>
       </c>
       <c r="O26" s="7">
-        <v>237443</v>
+        <v>262417</v>
       </c>
       <c r="P26" s="7">
-        <v>335053</v>
+        <v>77161</v>
       </c>
       <c r="Q26" s="7">
-        <v>295335</v>
+        <v>31074</v>
       </c>
       <c r="R26" s="7">
-        <v>231678</v>
+        <v>39481</v>
       </c>
       <c r="S26" s="7">
-        <v>333797</v>
+        <v>99115</v>
       </c>
       <c r="T26" s="7">
-        <v>801023</v>
+        <v>359434</v>
       </c>
       <c r="U26" s="7">
-        <v>171924</v>
+        <v>24992</v>
       </c>
       <c r="V26" s="7">
-        <v>447136</v>
+        <v>161979</v>
       </c>
       <c r="W26" s="7">
-        <v>343750</v>
+        <v>282624</v>
       </c>
       <c r="X26" s="7">
-        <v>318918</v>
+        <v>113369</v>
       </c>
       <c r="Y26" s="7">
-        <v>607961</v>
+        <v>249254</v>
       </c>
       <c r="Z26" s="7">
-        <v>291359</v>
+        <v>89791</v>
       </c>
       <c r="AA26" s="7">
-        <v>339286</v>
+        <v>41386</v>
       </c>
       <c r="AB26" s="7">
-        <v>322807</v>
+        <v>17486</v>
       </c>
       <c r="AC26" s="7">
-        <v>251065</v>
+        <v>45105</v>
       </c>
       <c r="AD26" s="7">
-        <v>116153</v>
+        <v>19216</v>
       </c>
       <c r="AE26" s="7">
-        <v>76860</v>
+        <v>22998</v>
       </c>
       <c r="AF26" s="7">
-        <v>581243</v>
+        <v>190647</v>
       </c>
       <c r="AG26" s="7">
-        <v>182694</v>
+        <v>50999</v>
       </c>
       <c r="AH26" s="7">
-        <v>423976</v>
+        <v>550477</v>
       </c>
       <c r="AI26" s="7">
-        <v>511455</v>
+        <v>171930</v>
       </c>
       <c r="AJ26" s="7">
-        <v>329500</v>
+        <v>39872</v>
       </c>
       <c r="AK26" s="7">
-        <v>390327</v>
+        <v>83384</v>
       </c>
       <c r="AL26" s="7">
-        <v>231332</v>
+        <v>81657</v>
       </c>
       <c r="AM26" s="7">
-        <v>449716</v>
+        <v>81087</v>
       </c>
       <c r="AN26" s="7">
-        <v>642051</v>
+        <v>327664</v>
       </c>
       <c r="AO26" s="7">
-        <v>59205</v>
+        <v>29055</v>
       </c>
       <c r="AP26" s="7">
-        <v>196531</v>
+        <v>86910</v>
       </c>
       <c r="AQ26" s="7">
-        <v>178255</v>
+        <v>46133</v>
       </c>
       <c r="AR26" s="7">
-        <v>291223</v>
+        <v>85428</v>
       </c>
       <c r="AS26" s="7">
-        <v>1040736</v>
+        <v>166995</v>
       </c>
       <c r="AT26" s="7">
-        <v>172571</v>
+        <v>37823</v>
       </c>
       <c r="AU26" s="7">
-        <v>81883</v>
+        <v>13837</v>
       </c>
       <c r="AV26" s="7">
-        <v>248919</v>
+        <v>118354</v>
       </c>
       <c r="AW26" s="7">
-        <v>861649</v>
+        <v>124187</v>
       </c>
       <c r="AX26" s="7">
-        <v>225833</v>
+        <v>51269</v>
       </c>
       <c r="AY26" s="7">
-        <v>664438</v>
+        <v>28419</v>
       </c>
       <c r="AZ26" s="7">
-        <v>394207</v>
+        <v>28898</v>
       </c>
     </row>
     <row r="27" spans="1:52" ht="12" customHeight="1">
@@ -4808,157 +4806,157 @@
         <v>72</v>
       </c>
       <c r="B27" s="6">
-        <v>5665892</v>
+        <v>52751231</v>
       </c>
       <c r="C27" s="7">
-        <v>20371</v>
+        <v>584862</v>
       </c>
       <c r="D27" s="7">
-        <v>29247</v>
+        <v>663166</v>
       </c>
       <c r="E27" s="7">
-        <v>78339</v>
+        <v>649188</v>
       </c>
       <c r="F27" s="7">
-        <v>58214</v>
+        <v>605998</v>
       </c>
       <c r="G27" s="7">
-        <v>523095</v>
+        <v>7362510</v>
       </c>
       <c r="H27" s="7">
-        <v>83055</v>
+        <v>806029</v>
       </c>
       <c r="I27" s="7">
-        <v>62093</v>
+        <v>1189621</v>
       </c>
       <c r="J27" s="7">
-        <v>44014</v>
+        <v>483713</v>
       </c>
       <c r="K27" s="7">
-        <v>104619</v>
+        <v>2564023</v>
       </c>
       <c r="L27" s="7">
-        <v>196605</v>
+        <v>827540</v>
       </c>
       <c r="M27" s="7">
-        <v>95856</v>
+        <v>413238</v>
       </c>
       <c r="N27" s="7">
-        <v>38477</v>
+        <v>335282</v>
       </c>
       <c r="O27" s="7">
-        <v>262417</v>
+        <v>1374685</v>
       </c>
       <c r="P27" s="7">
-        <v>77161</v>
+        <v>560115</v>
       </c>
       <c r="Q27" s="7">
-        <v>31074</v>
+        <v>550671</v>
       </c>
       <c r="R27" s="7">
-        <v>39481</v>
+        <v>411604</v>
       </c>
       <c r="S27" s="7">
-        <v>99115</v>
+        <v>878640</v>
       </c>
       <c r="T27" s="7">
-        <v>359434</v>
+        <v>944961</v>
       </c>
       <c r="U27" s="7">
-        <v>24992</v>
+        <v>289001</v>
       </c>
       <c r="V27" s="7">
-        <v>161979</v>
+        <v>1644697</v>
       </c>
       <c r="W27" s="7">
-        <v>282624</v>
+        <v>1725580</v>
       </c>
       <c r="X27" s="7">
-        <v>113369</v>
+        <v>945893</v>
       </c>
       <c r="Y27" s="7">
-        <v>249254</v>
+        <v>923991</v>
       </c>
       <c r="Z27" s="7">
-        <v>89791</v>
+        <v>448806</v>
       </c>
       <c r="AA27" s="7">
-        <v>41386</v>
+        <v>523093</v>
       </c>
       <c r="AB27" s="7">
-        <v>17486</v>
+        <v>380054</v>
       </c>
       <c r="AC27" s="7">
-        <v>45105</v>
+        <v>196763</v>
       </c>
       <c r="AD27" s="7">
-        <v>19216</v>
+        <v>296341</v>
       </c>
       <c r="AE27" s="7">
-        <v>22998</v>
+        <v>254442</v>
       </c>
       <c r="AF27" s="7">
-        <v>190647</v>
+        <v>1691288</v>
       </c>
       <c r="AG27" s="7">
-        <v>50999</v>
+        <v>597546</v>
       </c>
       <c r="AH27" s="7">
-        <v>550477</v>
+        <v>5524280</v>
       </c>
       <c r="AI27" s="7">
-        <v>171930</v>
+        <v>1296416</v>
       </c>
       <c r="AJ27" s="7">
-        <v>39872</v>
+        <v>157626</v>
       </c>
       <c r="AK27" s="7">
-        <v>83384</v>
+        <v>1796127</v>
       </c>
       <c r="AL27" s="7">
-        <v>81657</v>
+        <v>747200</v>
       </c>
       <c r="AM27" s="7">
-        <v>81087</v>
+        <v>1109197</v>
       </c>
       <c r="AN27" s="7">
-        <v>327664</v>
+        <v>2958712</v>
       </c>
       <c r="AO27" s="7">
-        <v>29055</v>
+        <v>351759</v>
       </c>
       <c r="AP27" s="7">
-        <v>86910</v>
+        <v>551247</v>
       </c>
       <c r="AQ27" s="7">
-        <v>46133</v>
+        <v>166448</v>
       </c>
       <c r="AR27" s="7">
-        <v>85428</v>
+        <v>868161</v>
       </c>
       <c r="AS27" s="7">
-        <v>166995</v>
+        <v>1818589</v>
       </c>
       <c r="AT27" s="7">
-        <v>37823</v>
+        <v>650991</v>
       </c>
       <c r="AU27" s="7">
-        <v>13837</v>
+        <v>167830</v>
       </c>
       <c r="AV27" s="7">
-        <v>118354</v>
+        <v>1314461</v>
       </c>
       <c r="AW27" s="7">
-        <v>124187</v>
+        <v>747190</v>
       </c>
       <c r="AX27" s="7">
-        <v>51269</v>
+        <v>438545</v>
       </c>
       <c r="AY27" s="7">
-        <v>28419</v>
+        <v>717793</v>
       </c>
       <c r="AZ27" s="7">
-        <v>28898</v>
+        <v>245318</v>
       </c>
     </row>
     <row r="28" spans="1:52" ht="12" customHeight="1">
@@ -4966,157 +4964,157 @@
         <v>73</v>
       </c>
       <c r="B28" s="6">
-        <v>52751231</v>
+        <v>46138932</v>
       </c>
       <c r="C28" s="7">
-        <v>584862</v>
+        <v>355035</v>
       </c>
       <c r="D28" s="7">
-        <v>663166</v>
+        <v>263066</v>
       </c>
       <c r="E28" s="7">
-        <v>649188</v>
+        <v>498304</v>
       </c>
       <c r="F28" s="7">
-        <v>605998</v>
+        <v>137746</v>
       </c>
       <c r="G28" s="7">
-        <v>7362510</v>
+        <v>7228325</v>
       </c>
       <c r="H28" s="7">
-        <v>806029</v>
+        <v>846807</v>
       </c>
       <c r="I28" s="7">
-        <v>1189621</v>
+        <v>1435495</v>
       </c>
       <c r="J28" s="7">
-        <v>483713</v>
+        <v>353163</v>
       </c>
       <c r="K28" s="7">
-        <v>2564023</v>
+        <v>1313796</v>
       </c>
       <c r="L28" s="7">
-        <v>827540</v>
+        <v>665293</v>
       </c>
       <c r="M28" s="7">
-        <v>413238</v>
+        <v>349062</v>
       </c>
       <c r="N28" s="7">
-        <v>335282</v>
+        <v>161777</v>
       </c>
       <c r="O28" s="7">
-        <v>1374685</v>
+        <v>3503179</v>
       </c>
       <c r="P28" s="7">
-        <v>560115</v>
+        <v>961664</v>
       </c>
       <c r="Q28" s="7">
-        <v>550671</v>
+        <v>245725</v>
       </c>
       <c r="R28" s="7">
-        <v>411604</v>
+        <v>215245</v>
       </c>
       <c r="S28" s="7">
-        <v>878640</v>
+        <v>692650</v>
       </c>
       <c r="T28" s="7">
-        <v>944961</v>
+        <v>849059</v>
       </c>
       <c r="U28" s="7">
-        <v>289001</v>
+        <v>233066</v>
       </c>
       <c r="V28" s="7">
-        <v>1644697</v>
+        <v>1101621</v>
       </c>
       <c r="W28" s="7">
-        <v>1725580</v>
+        <v>2899752</v>
       </c>
       <c r="X28" s="7">
-        <v>945893</v>
+        <v>1440019</v>
       </c>
       <c r="Y28" s="7">
-        <v>923991</v>
+        <v>481576</v>
       </c>
       <c r="Z28" s="7">
-        <v>448806</v>
+        <v>275259</v>
       </c>
       <c r="AA28" s="7">
-        <v>523093</v>
+        <v>790713</v>
       </c>
       <c r="AB28" s="7">
-        <v>380054</v>
+        <v>140943</v>
       </c>
       <c r="AC28" s="7">
-        <v>196763</v>
+        <v>70011</v>
       </c>
       <c r="AD28" s="7">
-        <v>296341</v>
+        <v>189309</v>
       </c>
       <c r="AE28" s="7">
-        <v>254442</v>
+        <v>357212</v>
       </c>
       <c r="AF28" s="7">
-        <v>1691288</v>
+        <v>2161780</v>
       </c>
       <c r="AG28" s="7">
-        <v>597546</v>
+        <v>288029</v>
       </c>
       <c r="AH28" s="7">
-        <v>5524280</v>
+        <v>4291315</v>
       </c>
       <c r="AI28" s="7">
-        <v>1296416</v>
+        <v>619671</v>
       </c>
       <c r="AJ28" s="7">
-        <v>157626</v>
+        <v>97306</v>
       </c>
       <c r="AK28" s="7">
-        <v>1796127</v>
+        <v>1231811</v>
       </c>
       <c r="AL28" s="7">
-        <v>747200</v>
+        <v>460984</v>
       </c>
       <c r="AM28" s="7">
-        <v>1109197</v>
+        <v>424175</v>
       </c>
       <c r="AN28" s="7">
-        <v>2958712</v>
+        <v>1446132</v>
       </c>
       <c r="AO28" s="7">
-        <v>351759</v>
+        <v>474116</v>
       </c>
       <c r="AP28" s="7">
-        <v>551247</v>
+        <v>432314</v>
       </c>
       <c r="AQ28" s="7">
-        <v>166448</v>
+        <v>114194</v>
       </c>
       <c r="AR28" s="7">
-        <v>868161</v>
+        <v>264464</v>
       </c>
       <c r="AS28" s="7">
-        <v>1818589</v>
+        <v>1729403</v>
       </c>
       <c r="AT28" s="7">
-        <v>650991</v>
+        <v>270687</v>
       </c>
       <c r="AU28" s="7">
-        <v>167830</v>
+        <v>94202</v>
       </c>
       <c r="AV28" s="7">
-        <v>1314461</v>
+        <v>1159003</v>
       </c>
       <c r="AW28" s="7">
-        <v>747190</v>
+        <v>1289645</v>
       </c>
       <c r="AX28" s="7">
-        <v>438545</v>
+        <v>253663</v>
       </c>
       <c r="AY28" s="7">
-        <v>717793</v>
+        <v>929923</v>
       </c>
       <c r="AZ28" s="7">
-        <v>245318</v>
+        <v>51243</v>
       </c>
     </row>
     <row r="29" spans="1:52" ht="12" customHeight="1">
@@ -5124,157 +5122,157 @@
         <v>74</v>
       </c>
       <c r="B29" s="6">
-        <v>46138932</v>
+        <v>132569049</v>
       </c>
       <c r="C29" s="7">
-        <v>355035</v>
+        <v>1223915</v>
       </c>
       <c r="D29" s="7">
-        <v>263066</v>
+        <v>2445630</v>
       </c>
       <c r="E29" s="7">
-        <v>498304</v>
+        <v>2702721</v>
       </c>
       <c r="F29" s="7">
-        <v>137746</v>
+        <v>885202</v>
       </c>
       <c r="G29" s="7">
-        <v>7228325</v>
+        <v>13495632</v>
       </c>
       <c r="H29" s="7">
-        <v>846807</v>
+        <v>1449738</v>
       </c>
       <c r="I29" s="7">
-        <v>1435495</v>
+        <v>2332410</v>
       </c>
       <c r="J29" s="7">
-        <v>353163</v>
+        <v>611235</v>
       </c>
       <c r="K29" s="7">
-        <v>1313796</v>
+        <v>6468874</v>
       </c>
       <c r="L29" s="7">
-        <v>665293</v>
+        <v>1571871</v>
       </c>
       <c r="M29" s="7">
-        <v>349062</v>
+        <v>1684572</v>
       </c>
       <c r="N29" s="7">
-        <v>161777</v>
+        <v>547167</v>
       </c>
       <c r="O29" s="7">
-        <v>3503179</v>
+        <v>7797305</v>
       </c>
       <c r="P29" s="7">
-        <v>961664</v>
+        <v>2041849</v>
       </c>
       <c r="Q29" s="7">
-        <v>245725</v>
+        <v>1178514</v>
       </c>
       <c r="R29" s="7">
-        <v>215245</v>
+        <v>626985</v>
       </c>
       <c r="S29" s="7">
-        <v>692650</v>
+        <v>997936</v>
       </c>
       <c r="T29" s="7">
-        <v>849059</v>
+        <v>3570251</v>
       </c>
       <c r="U29" s="7">
-        <v>233066</v>
+        <v>823225</v>
       </c>
       <c r="V29" s="7">
-        <v>1101621</v>
+        <v>2809284</v>
       </c>
       <c r="W29" s="7">
-        <v>2899752</v>
+        <v>6965428</v>
       </c>
       <c r="X29" s="7">
-        <v>1440019</v>
+        <v>3685941</v>
       </c>
       <c r="Y29" s="7">
-        <v>481576</v>
+        <v>2387227</v>
       </c>
       <c r="Z29" s="7">
-        <v>275259</v>
+        <v>1608139</v>
       </c>
       <c r="AA29" s="7">
-        <v>790713</v>
+        <v>1588681</v>
       </c>
       <c r="AB29" s="7">
-        <v>140943</v>
+        <v>771190</v>
       </c>
       <c r="AC29" s="7">
-        <v>70011</v>
+        <v>911173</v>
       </c>
       <c r="AD29" s="7">
-        <v>189309</v>
+        <v>1604552</v>
       </c>
       <c r="AE29" s="7">
-        <v>357212</v>
+        <v>829036</v>
       </c>
       <c r="AF29" s="7">
-        <v>2161780</v>
+        <v>5485878</v>
       </c>
       <c r="AG29" s="7">
-        <v>288029</v>
+        <v>1806841</v>
       </c>
       <c r="AH29" s="7">
-        <v>4291315</v>
+        <v>14566468</v>
       </c>
       <c r="AI29" s="7">
-        <v>619671</v>
+        <v>2284685</v>
       </c>
       <c r="AJ29" s="7">
-        <v>97306</v>
+        <v>888892</v>
       </c>
       <c r="AK29" s="7">
-        <v>1231811</v>
+        <v>4046842</v>
       </c>
       <c r="AL29" s="7">
-        <v>460984</v>
+        <v>753082</v>
       </c>
       <c r="AM29" s="7">
-        <v>424175</v>
+        <v>1085361</v>
       </c>
       <c r="AN29" s="7">
-        <v>1446132</v>
+        <v>3659323</v>
       </c>
       <c r="AO29" s="7">
-        <v>474116</v>
+        <v>469024</v>
       </c>
       <c r="AP29" s="7">
-        <v>432314</v>
+        <v>2608383</v>
       </c>
       <c r="AQ29" s="7">
-        <v>114194</v>
+        <v>260094</v>
       </c>
       <c r="AR29" s="7">
-        <v>264464</v>
+        <v>1598854</v>
       </c>
       <c r="AS29" s="7">
-        <v>1729403</v>
+        <v>4959607</v>
       </c>
       <c r="AT29" s="7">
-        <v>270687</v>
+        <v>944021</v>
       </c>
       <c r="AU29" s="7">
-        <v>94202</v>
+        <v>295519</v>
       </c>
       <c r="AV29" s="7">
-        <v>1159003</v>
+        <v>3498714</v>
       </c>
       <c r="AW29" s="7">
-        <v>1289645</v>
+        <v>2029100</v>
       </c>
       <c r="AX29" s="7">
-        <v>253663</v>
+        <v>928684</v>
       </c>
       <c r="AY29" s="7">
-        <v>929923</v>
+        <v>3995163</v>
       </c>
       <c r="AZ29" s="7">
-        <v>51243</v>
+        <v>788831</v>
       </c>
     </row>
     <row r="30" spans="1:52" ht="12" customHeight="1">
@@ -5282,1268 +5280,794 @@
         <v>75</v>
       </c>
       <c r="B30" s="6">
-        <v>132569049</v>
+        <v>292447534</v>
       </c>
       <c r="C30" s="7">
-        <v>1223915</v>
+        <v>3335438</v>
       </c>
       <c r="D30" s="7">
-        <v>2445630</v>
+        <v>1298440</v>
       </c>
       <c r="E30" s="7">
-        <v>2702721</v>
+        <v>4182959</v>
       </c>
       <c r="F30" s="7">
-        <v>885202</v>
+        <v>1962506</v>
       </c>
       <c r="G30" s="7">
-        <v>13495632</v>
+        <v>49248058</v>
       </c>
       <c r="H30" s="7">
-        <v>1449738</v>
+        <v>5539020</v>
       </c>
       <c r="I30" s="7">
-        <v>2332410</v>
+        <v>4831889</v>
       </c>
       <c r="J30" s="7">
-        <v>611235</v>
+        <v>730646</v>
       </c>
       <c r="K30" s="7">
-        <v>6468874</v>
+        <v>9196389</v>
       </c>
       <c r="L30" s="7">
-        <v>1571871</v>
+        <v>6743993</v>
       </c>
       <c r="M30" s="7">
-        <v>1684572</v>
+        <v>1374043</v>
       </c>
       <c r="N30" s="7">
-        <v>547167</v>
+        <v>1048593</v>
       </c>
       <c r="O30" s="7">
-        <v>7797305</v>
+        <v>14102769</v>
       </c>
       <c r="P30" s="7">
-        <v>2041849</v>
+        <v>3343517</v>
       </c>
       <c r="Q30" s="7">
-        <v>1178514</v>
+        <v>2440770</v>
       </c>
       <c r="R30" s="7">
-        <v>626985</v>
+        <v>1920842</v>
       </c>
       <c r="S30" s="7">
-        <v>997936</v>
+        <v>4403821</v>
       </c>
       <c r="T30" s="7">
-        <v>3570251</v>
+        <v>4232506</v>
       </c>
       <c r="U30" s="7">
-        <v>823225</v>
+        <v>1049864</v>
       </c>
       <c r="V30" s="7">
-        <v>2809284</v>
+        <v>4453735</v>
       </c>
       <c r="W30" s="7">
-        <v>6965428</v>
+        <v>8123132</v>
       </c>
       <c r="X30" s="7">
-        <v>3685941</v>
+        <v>8513291</v>
       </c>
       <c r="Y30" s="7">
-        <v>2387227</v>
+        <v>4875923</v>
       </c>
       <c r="Z30" s="7">
-        <v>1608139</v>
+        <v>2488249</v>
       </c>
       <c r="AA30" s="7">
-        <v>1588681</v>
+        <v>4412372</v>
       </c>
       <c r="AB30" s="7">
-        <v>771190</v>
+        <v>931996</v>
       </c>
       <c r="AC30" s="7">
-        <v>911173</v>
+        <v>696384</v>
       </c>
       <c r="AD30" s="7">
-        <v>1604552</v>
+        <v>2550727</v>
       </c>
       <c r="AE30" s="7">
-        <v>829036</v>
+        <v>744130</v>
       </c>
       <c r="AF30" s="7">
-        <v>5485878</v>
+        <v>14532854</v>
       </c>
       <c r="AG30" s="7">
-        <v>1806841</v>
+        <v>2185230</v>
       </c>
       <c r="AH30" s="7">
-        <v>14566468</v>
+        <v>24088890</v>
       </c>
       <c r="AI30" s="7">
-        <v>2284685</v>
+        <v>7450937</v>
       </c>
       <c r="AJ30" s="7">
-        <v>888892</v>
+        <v>623759</v>
       </c>
       <c r="AK30" s="7">
-        <v>4046842</v>
+        <v>16434097</v>
       </c>
       <c r="AL30" s="7">
-        <v>753082</v>
+        <v>2527396</v>
       </c>
       <c r="AM30" s="7">
-        <v>1085361</v>
+        <v>5113960</v>
       </c>
       <c r="AN30" s="7">
-        <v>3659323</v>
+        <v>13702203</v>
       </c>
       <c r="AO30" s="7">
-        <v>469024</v>
+        <v>1471624</v>
       </c>
       <c r="AP30" s="7">
-        <v>2608383</v>
+        <v>3687516</v>
       </c>
       <c r="AQ30" s="7">
-        <v>260094</v>
+        <v>465639</v>
       </c>
       <c r="AR30" s="7">
-        <v>1598854</v>
+        <v>2755113</v>
       </c>
       <c r="AS30" s="7">
-        <v>4959607</v>
+        <v>16904612</v>
       </c>
       <c r="AT30" s="7">
-        <v>944021</v>
+        <v>1659853</v>
       </c>
       <c r="AU30" s="7">
-        <v>295519</v>
+        <v>358256</v>
       </c>
       <c r="AV30" s="7">
-        <v>3498714</v>
+        <v>4570249</v>
       </c>
       <c r="AW30" s="7">
-        <v>2029100</v>
+        <v>7344585</v>
       </c>
       <c r="AX30" s="7">
-        <v>928684</v>
+        <v>1446341</v>
       </c>
       <c r="AY30" s="7">
-        <v>3995163</v>
+        <v>5637912</v>
       </c>
       <c r="AZ30" s="7">
-        <v>788831</v>
+        <v>710506</v>
       </c>
     </row>
     <row r="31" spans="1:52" ht="12" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B31" s="6">
-        <v>24661698</v>
-      </c>
-      <c r="C31" s="8">
-        <v>0</v>
+        <v>71181425</v>
+      </c>
+      <c r="C31" s="7">
+        <v>413921</v>
       </c>
       <c r="D31" s="7">
-        <v>208964</v>
+        <v>296771</v>
       </c>
       <c r="E31" s="7">
-        <v>34599</v>
-      </c>
-      <c r="F31" s="8">
-        <v>0</v>
+        <v>664539</v>
+      </c>
+      <c r="F31" s="7">
+        <v>518026</v>
       </c>
       <c r="G31" s="7">
-        <v>870215</v>
+        <v>11866557</v>
       </c>
       <c r="H31" s="7">
-        <v>15815</v>
+        <v>1040083</v>
       </c>
       <c r="I31" s="7">
-        <v>751517</v>
+        <v>1523821</v>
       </c>
       <c r="J31" s="7">
-        <v>134633</v>
+        <v>195916</v>
       </c>
       <c r="K31" s="7">
-        <v>141968</v>
+        <v>2384990</v>
       </c>
       <c r="L31" s="7">
-        <v>37296</v>
+        <v>1507086</v>
       </c>
       <c r="M31" s="7">
-        <v>5564</v>
-      </c>
-      <c r="N31" s="8">
-        <v>0</v>
-      </c>
-      <c r="O31" s="8">
-        <v>0</v>
-      </c>
-      <c r="P31" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="8">
-        <v>0</v>
-      </c>
-      <c r="R31" s="8">
-        <v>0</v>
+        <v>333558</v>
+      </c>
+      <c r="N31" s="7">
+        <v>236281</v>
+      </c>
+      <c r="O31" s="7">
+        <v>3806108</v>
+      </c>
+      <c r="P31" s="7">
+        <v>1077745</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>553501</v>
+      </c>
+      <c r="R31" s="7">
+        <v>521420</v>
       </c>
       <c r="S31" s="7">
-        <v>25986</v>
+        <v>872292</v>
       </c>
       <c r="T31" s="7">
-        <v>5175</v>
+        <v>332719</v>
       </c>
       <c r="U31" s="7">
-        <v>23562</v>
+        <v>254733</v>
       </c>
       <c r="V31" s="7">
-        <v>932389</v>
+        <v>1206249</v>
       </c>
       <c r="W31" s="7">
-        <v>2289491</v>
+        <v>2610602</v>
       </c>
       <c r="X31" s="7">
-        <v>139900</v>
+        <v>2332122</v>
       </c>
       <c r="Y31" s="7">
-        <v>8593</v>
-      </c>
-      <c r="Z31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="8">
-        <v>0</v>
+        <v>1107095</v>
+      </c>
+      <c r="Z31" s="7">
+        <v>350592</v>
+      </c>
+      <c r="AA31" s="7">
+        <v>849753</v>
       </c>
       <c r="AB31" s="7">
-        <v>11934</v>
-      </c>
-      <c r="AC31" s="8">
-        <v>0</v>
+        <v>176704</v>
+      </c>
+      <c r="AC31" s="7">
+        <v>185939</v>
       </c>
       <c r="AD31" s="7">
-        <v>83680</v>
+        <v>843281</v>
       </c>
       <c r="AE31" s="7">
-        <v>6301</v>
+        <v>142346</v>
       </c>
       <c r="AF31" s="7">
-        <v>2777472</v>
-      </c>
-      <c r="AG31" s="8">
-        <v>0</v>
+        <v>4804523</v>
+      </c>
+      <c r="AG31" s="7">
+        <v>366662</v>
       </c>
       <c r="AH31" s="7">
-        <v>12795197</v>
+        <v>6076382</v>
       </c>
       <c r="AI31" s="7">
-        <v>72197</v>
-      </c>
-      <c r="AJ31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK31" s="8">
-        <v>0</v>
+        <v>2536204</v>
+      </c>
+      <c r="AJ31" s="7">
+        <v>101747</v>
+      </c>
+      <c r="AK31" s="7">
+        <v>2052382</v>
       </c>
       <c r="AL31" s="7">
-        <v>813879</v>
+        <v>368982</v>
       </c>
       <c r="AM31" s="7">
-        <v>27393</v>
-      </c>
-      <c r="AN31" s="8">
-        <v>10</v>
+        <v>1193646</v>
+      </c>
+      <c r="AN31" s="7">
+        <v>4628186</v>
       </c>
       <c r="AO31" s="7">
-        <v>154623</v>
+        <v>391284</v>
       </c>
       <c r="AP31" s="7">
-        <v>2226746</v>
-      </c>
-      <c r="AQ31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AS31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AT31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AU31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV31" s="8">
-        <v>0</v>
+        <v>547255</v>
+      </c>
+      <c r="AQ31" s="7">
+        <v>37417</v>
+      </c>
+      <c r="AR31" s="7">
+        <v>796891</v>
+      </c>
+      <c r="AS31" s="7">
+        <v>3910907</v>
+      </c>
+      <c r="AT31" s="7">
+        <v>312383</v>
+      </c>
+      <c r="AU31" s="7">
+        <v>110789</v>
+      </c>
+      <c r="AV31" s="7">
+        <v>812126</v>
       </c>
       <c r="AW31" s="7">
-        <v>53312</v>
+        <v>2055288</v>
       </c>
       <c r="AX31" s="7">
-        <v>4854</v>
+        <v>365722</v>
       </c>
       <c r="AY31" s="7">
-        <v>8433</v>
-      </c>
-      <c r="AZ31" s="8">
-        <v>0</v>
+        <v>1400501</v>
+      </c>
+      <c r="AZ31" s="7">
+        <v>107398</v>
       </c>
     </row>
     <row r="32" spans="1:52" ht="12" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B32" s="6">
-        <v>5632375</v>
+        <v>203454835</v>
       </c>
       <c r="C32" s="7">
-        <v>266619</v>
-      </c>
-      <c r="D32" s="8">
-        <v>0</v>
-      </c>
-      <c r="E32" s="8">
-        <v>0</v>
-      </c>
-      <c r="F32" s="8">
-        <v>0</v>
-      </c>
-      <c r="G32" s="8">
-        <v>0</v>
-      </c>
-      <c r="H32" s="8">
-        <v>0</v>
-      </c>
-      <c r="I32" s="8">
-        <v>0</v>
-      </c>
-      <c r="J32" s="8">
-        <v>0</v>
-      </c>
-      <c r="K32" s="8">
-        <v>0</v>
-      </c>
-      <c r="L32" s="8">
-        <v>0</v>
-      </c>
-      <c r="M32" s="8">
-        <v>0</v>
+        <v>2921517</v>
+      </c>
+      <c r="D32" s="7">
+        <v>997064</v>
+      </c>
+      <c r="E32" s="7">
+        <v>3366945</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1428328</v>
+      </c>
+      <c r="G32" s="7">
+        <v>31030161</v>
+      </c>
+      <c r="H32" s="7">
+        <v>3950747</v>
+      </c>
+      <c r="I32" s="7">
+        <v>3277160</v>
+      </c>
+      <c r="J32" s="7">
+        <v>528464</v>
+      </c>
+      <c r="K32" s="7">
+        <v>6680146</v>
+      </c>
+      <c r="L32" s="7">
+        <v>5137645</v>
+      </c>
+      <c r="M32" s="7">
+        <v>1040485</v>
       </c>
       <c r="N32" s="7">
-        <v>104030</v>
-      </c>
-      <c r="O32" s="8">
-        <v>0</v>
-      </c>
-      <c r="P32" s="8">
-        <v>0</v>
+        <v>692990</v>
+      </c>
+      <c r="O32" s="7">
+        <v>10231516</v>
+      </c>
+      <c r="P32" s="7">
+        <v>2259973</v>
       </c>
       <c r="Q32" s="7">
-        <v>175613</v>
-      </c>
-      <c r="R32" s="8">
-        <v>0</v>
-      </c>
-      <c r="S32" s="8">
-        <v>0</v>
-      </c>
-      <c r="T32" s="8">
-        <v>0</v>
-      </c>
-      <c r="U32" s="8">
-        <v>0</v>
-      </c>
-      <c r="V32" s="8">
-        <v>0</v>
-      </c>
-      <c r="W32" s="8">
-        <v>0</v>
+        <v>1881704</v>
+      </c>
+      <c r="R32" s="7">
+        <v>1394845</v>
+      </c>
+      <c r="S32" s="7">
+        <v>3354164</v>
+      </c>
+      <c r="T32" s="7">
+        <v>3676068</v>
+      </c>
+      <c r="U32" s="7">
+        <v>795131</v>
+      </c>
+      <c r="V32" s="7">
+        <v>3019286</v>
+      </c>
+      <c r="W32" s="7">
+        <v>4599882</v>
       </c>
       <c r="X32" s="7">
-        <v>742661</v>
-      </c>
-      <c r="Y32" s="8">
-        <v>0</v>
+        <v>6168265</v>
+      </c>
+      <c r="Y32" s="7">
+        <v>3711538</v>
       </c>
       <c r="Z32" s="7">
-        <v>226970</v>
-      </c>
-      <c r="AA32" s="8">
-        <v>0</v>
+        <v>2137657</v>
+      </c>
+      <c r="AA32" s="7">
+        <v>3520125</v>
       </c>
       <c r="AB32" s="7">
-        <v>70886</v>
-      </c>
-      <c r="AC32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="8">
-        <v>0</v>
+        <v>627698</v>
+      </c>
+      <c r="AC32" s="7">
+        <v>509367</v>
+      </c>
+      <c r="AD32" s="7">
+        <v>1707446</v>
       </c>
       <c r="AE32" s="7">
-        <v>462558</v>
-      </c>
-      <c r="AF32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="8">
-        <v>0</v>
+        <v>601784</v>
+      </c>
+      <c r="AF32" s="7">
+        <v>9009508</v>
+      </c>
+      <c r="AG32" s="7">
+        <v>1775173</v>
+      </c>
+      <c r="AH32" s="7">
+        <v>15661254</v>
+      </c>
+      <c r="AI32" s="7">
+        <v>4914733</v>
+      </c>
+      <c r="AJ32" s="7">
+        <v>249723</v>
       </c>
       <c r="AK32" s="7">
-        <v>356067</v>
-      </c>
-      <c r="AL32" s="8">
-        <v>0</v>
+        <v>13244997</v>
+      </c>
+      <c r="AL32" s="7">
+        <v>1935768</v>
       </c>
       <c r="AM32" s="7">
-        <v>243302</v>
+        <v>3573500</v>
       </c>
       <c r="AN32" s="7">
-        <v>1586300</v>
-      </c>
-      <c r="AO32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AS32" s="8">
-        <v>0</v>
+        <v>8720658</v>
+      </c>
+      <c r="AO32" s="7">
+        <v>914772</v>
+      </c>
+      <c r="AP32" s="7">
+        <v>3025971</v>
+      </c>
+      <c r="AQ32" s="7">
+        <v>426612</v>
+      </c>
+      <c r="AR32" s="7">
+        <v>1958222</v>
+      </c>
+      <c r="AS32" s="7">
+        <v>12670049</v>
       </c>
       <c r="AT32" s="7">
-        <v>206425</v>
+        <v>1158491</v>
       </c>
       <c r="AU32" s="7">
-        <v>52112</v>
+        <v>247467</v>
       </c>
       <c r="AV32" s="7">
-        <v>513964</v>
+        <v>3754079</v>
       </c>
       <c r="AW32" s="7">
-        <v>463000</v>
+        <v>3303199</v>
       </c>
       <c r="AX32" s="7">
-        <v>74110</v>
-      </c>
-      <c r="AY32" s="8">
-        <v>0</v>
+        <v>990402</v>
+      </c>
+      <c r="AY32" s="7">
+        <v>4234714</v>
       </c>
       <c r="AZ32" s="7">
-        <v>87758</v>
+        <v>437442</v>
       </c>
     </row>
     <row r="33" spans="1:52" ht="12" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B33" s="6">
-        <v>292447534</v>
-      </c>
-      <c r="C33" s="7">
-        <v>3335438</v>
+        <v>10894581</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0</v>
       </c>
       <c r="D33" s="7">
-        <v>1298440</v>
+        <v>4605</v>
       </c>
       <c r="E33" s="7">
-        <v>4182959</v>
+        <v>151475</v>
       </c>
       <c r="F33" s="7">
-        <v>1962506</v>
+        <v>16152</v>
       </c>
       <c r="G33" s="7">
-        <v>49248058</v>
+        <v>1494297</v>
       </c>
       <c r="H33" s="7">
-        <v>5539020</v>
+        <v>435372</v>
       </c>
       <c r="I33" s="7">
-        <v>4831889</v>
+        <v>30908</v>
       </c>
       <c r="J33" s="7">
-        <v>730646</v>
+        <v>6266</v>
       </c>
       <c r="K33" s="7">
-        <v>9196389</v>
-      </c>
-      <c r="L33" s="7">
-        <v>6743993</v>
-      </c>
-      <c r="M33" s="7">
-        <v>1374043</v>
+        <v>131253</v>
+      </c>
+      <c r="L33" s="8">
+        <v>0</v>
+      </c>
+      <c r="M33" s="8">
+        <v>0</v>
       </c>
       <c r="N33" s="7">
-        <v>1048593</v>
+        <v>119322</v>
       </c>
       <c r="O33" s="7">
-        <v>14102769</v>
+        <v>12599</v>
       </c>
       <c r="P33" s="7">
-        <v>3343517</v>
+        <v>5799</v>
       </c>
       <c r="Q33" s="7">
-        <v>2440770</v>
+        <v>5565</v>
       </c>
       <c r="R33" s="7">
-        <v>1920842</v>
+        <v>4577</v>
       </c>
       <c r="S33" s="7">
-        <v>4403821</v>
+        <v>177365</v>
       </c>
       <c r="T33" s="7">
-        <v>4232506</v>
-      </c>
-      <c r="U33" s="7">
-        <v>1049864</v>
+        <v>64494</v>
+      </c>
+      <c r="U33" s="8">
+        <v>0</v>
       </c>
       <c r="V33" s="7">
-        <v>4453735</v>
+        <v>183064</v>
       </c>
       <c r="W33" s="7">
-        <v>8123132</v>
+        <v>48558</v>
       </c>
       <c r="X33" s="7">
-        <v>8513291</v>
+        <v>12904</v>
       </c>
       <c r="Y33" s="7">
-        <v>4875923</v>
-      </c>
-      <c r="Z33" s="7">
-        <v>2488249</v>
+        <v>57290</v>
+      </c>
+      <c r="Z33" s="8">
+        <v>0</v>
       </c>
       <c r="AA33" s="7">
-        <v>4412372</v>
+        <v>42494</v>
       </c>
       <c r="AB33" s="7">
-        <v>931996</v>
+        <v>114644</v>
       </c>
       <c r="AC33" s="7">
-        <v>696384</v>
-      </c>
-      <c r="AD33" s="7">
-        <v>2550727</v>
-      </c>
-      <c r="AE33" s="7">
-        <v>744130</v>
+        <v>1078</v>
+      </c>
+      <c r="AD33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="8">
+        <v>0</v>
       </c>
       <c r="AF33" s="7">
-        <v>14532854</v>
+        <v>195227</v>
       </c>
       <c r="AG33" s="7">
-        <v>2185230</v>
+        <v>17017</v>
       </c>
       <c r="AH33" s="7">
-        <v>24088890</v>
-      </c>
-      <c r="AI33" s="7">
-        <v>7450937</v>
+        <v>2351254</v>
+      </c>
+      <c r="AI33" s="8">
+        <v>0</v>
       </c>
       <c r="AJ33" s="7">
-        <v>623759</v>
+        <v>272289</v>
       </c>
       <c r="AK33" s="7">
-        <v>16434097</v>
+        <v>1136718</v>
       </c>
       <c r="AL33" s="7">
-        <v>2527396</v>
+        <v>222646</v>
       </c>
       <c r="AM33" s="7">
-        <v>5113960</v>
+        <v>346814</v>
       </c>
       <c r="AN33" s="7">
-        <v>13702203</v>
+        <v>353359</v>
       </c>
       <c r="AO33" s="7">
-        <v>1471624</v>
+        <v>1919</v>
       </c>
       <c r="AP33" s="7">
-        <v>3687516</v>
+        <v>114290</v>
       </c>
       <c r="AQ33" s="7">
-        <v>465639</v>
-      </c>
-      <c r="AR33" s="7">
-        <v>2755113</v>
+        <v>1610</v>
+      </c>
+      <c r="AR33" s="8">
+        <v>0</v>
       </c>
       <c r="AS33" s="7">
-        <v>16904612</v>
+        <v>323656</v>
       </c>
       <c r="AT33" s="7">
-        <v>1659853</v>
-      </c>
-      <c r="AU33" s="7">
-        <v>358256</v>
+        <v>188979</v>
+      </c>
+      <c r="AU33" s="8">
+        <v>0</v>
       </c>
       <c r="AV33" s="7">
-        <v>4570249</v>
+        <v>4044</v>
       </c>
       <c r="AW33" s="7">
-        <v>7344585</v>
+        <v>1986098</v>
       </c>
       <c r="AX33" s="7">
-        <v>1446341</v>
+        <v>90217</v>
       </c>
       <c r="AY33" s="7">
-        <v>5637912</v>
+        <v>2697</v>
       </c>
       <c r="AZ33" s="7">
-        <v>710506</v>
+        <v>165666</v>
       </c>
     </row>
     <row r="34" spans="1:52" ht="12" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B34" s="6">
-        <v>71181425</v>
-      </c>
-      <c r="C34" s="7">
-        <v>413921</v>
-      </c>
-      <c r="D34" s="7">
-        <v>296771</v>
-      </c>
-      <c r="E34" s="7">
-        <v>664539</v>
-      </c>
-      <c r="F34" s="7">
-        <v>518026</v>
+        <v>6916693</v>
+      </c>
+      <c r="C34" s="8">
+        <v>0</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0</v>
       </c>
       <c r="G34" s="7">
-        <v>11866557</v>
+        <v>4857043</v>
       </c>
       <c r="H34" s="7">
-        <v>1040083</v>
-      </c>
-      <c r="I34" s="7">
-        <v>1523821</v>
-      </c>
-      <c r="J34" s="7">
-        <v>195916</v>
-      </c>
-      <c r="K34" s="7">
-        <v>2384990</v>
+        <v>112818</v>
+      </c>
+      <c r="I34" s="8">
+        <v>0</v>
+      </c>
+      <c r="J34" s="8">
+        <v>0</v>
+      </c>
+      <c r="K34" s="8">
+        <v>0</v>
       </c>
       <c r="L34" s="7">
-        <v>1507086</v>
-      </c>
-      <c r="M34" s="7">
-        <v>333558</v>
-      </c>
-      <c r="N34" s="7">
-        <v>236281</v>
+        <v>99262</v>
+      </c>
+      <c r="M34" s="8">
+        <v>0</v>
+      </c>
+      <c r="N34" s="8">
+        <v>0</v>
       </c>
       <c r="O34" s="7">
-        <v>3806108</v>
-      </c>
-      <c r="P34" s="7">
-        <v>1077745</v>
-      </c>
-      <c r="Q34" s="7">
-        <v>553501</v>
-      </c>
-      <c r="R34" s="7">
-        <v>521420</v>
-      </c>
-      <c r="S34" s="7">
-        <v>872292</v>
+        <v>52546</v>
+      </c>
+      <c r="P34" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>0</v>
+      </c>
+      <c r="R34" s="8">
+        <v>0</v>
+      </c>
+      <c r="S34" s="8">
+        <v>0</v>
       </c>
       <c r="T34" s="7">
-        <v>332719</v>
-      </c>
-      <c r="U34" s="7">
-        <v>254733</v>
+        <v>159225</v>
+      </c>
+      <c r="U34" s="8">
+        <v>0</v>
       </c>
       <c r="V34" s="7">
-        <v>1206249</v>
+        <v>45136</v>
       </c>
       <c r="W34" s="7">
-        <v>2610602</v>
-      </c>
-      <c r="X34" s="7">
-        <v>2332122</v>
-      </c>
-      <c r="Y34" s="7">
-        <v>1107095</v>
-      </c>
-      <c r="Z34" s="7">
-        <v>350592</v>
-      </c>
-      <c r="AA34" s="7">
-        <v>849753</v>
+        <v>864090</v>
+      </c>
+      <c r="X34" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="8">
+        <v>0</v>
       </c>
       <c r="AB34" s="7">
-        <v>176704</v>
-      </c>
-      <c r="AC34" s="7">
-        <v>185939</v>
-      </c>
-      <c r="AD34" s="7">
-        <v>843281</v>
-      </c>
-      <c r="AE34" s="7">
-        <v>142346</v>
+        <v>12950</v>
+      </c>
+      <c r="AC34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="8">
+        <v>0</v>
       </c>
       <c r="AF34" s="7">
-        <v>4804523</v>
+        <v>523596</v>
       </c>
       <c r="AG34" s="7">
-        <v>366662</v>
-      </c>
-      <c r="AH34" s="7">
-        <v>6076382</v>
-      </c>
-      <c r="AI34" s="7">
-        <v>2536204</v>
-      </c>
-      <c r="AJ34" s="7">
-        <v>101747</v>
-      </c>
-      <c r="AK34" s="7">
-        <v>2052382</v>
-      </c>
-      <c r="AL34" s="7">
-        <v>368982</v>
-      </c>
-      <c r="AM34" s="7">
-        <v>1193646</v>
-      </c>
-      <c r="AN34" s="7">
-        <v>4628186</v>
+        <v>26378</v>
+      </c>
+      <c r="AH34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="8">
+        <v>0</v>
       </c>
       <c r="AO34" s="7">
-        <v>391284</v>
-      </c>
-      <c r="AP34" s="7">
-        <v>547255</v>
-      </c>
-      <c r="AQ34" s="7">
-        <v>37417</v>
-      </c>
-      <c r="AR34" s="7">
-        <v>796891</v>
-      </c>
-      <c r="AS34" s="7">
-        <v>3910907</v>
-      </c>
-      <c r="AT34" s="7">
-        <v>312383</v>
-      </c>
-      <c r="AU34" s="7">
-        <v>110789</v>
-      </c>
-      <c r="AV34" s="7">
-        <v>812126</v>
-      </c>
-      <c r="AW34" s="7">
-        <v>2055288</v>
-      </c>
-      <c r="AX34" s="7">
-        <v>365722</v>
-      </c>
-      <c r="AY34" s="7">
-        <v>1400501</v>
-      </c>
-      <c r="AZ34" s="7">
-        <v>107398</v>
+        <v>163649</v>
+      </c>
+      <c r="AP34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AY34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ34" s="8">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:52" ht="12" customHeight="1">
-      <c r="A35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="6">
-        <v>203454835</v>
-      </c>
-      <c r="C35" s="7">
-        <v>2921517</v>
-      </c>
-      <c r="D35" s="7">
-        <v>997064</v>
-      </c>
-      <c r="E35" s="7">
-        <v>3366945</v>
-      </c>
-      <c r="F35" s="7">
-        <v>1428328</v>
-      </c>
-      <c r="G35" s="7">
-        <v>31030161</v>
-      </c>
-      <c r="H35" s="7">
-        <v>3950747</v>
-      </c>
-      <c r="I35" s="7">
-        <v>3277160</v>
-      </c>
-      <c r="J35" s="7">
-        <v>528464</v>
-      </c>
-      <c r="K35" s="7">
-        <v>6680146</v>
-      </c>
-      <c r="L35" s="7">
-        <v>5137645</v>
-      </c>
-      <c r="M35" s="7">
-        <v>1040485</v>
-      </c>
-      <c r="N35" s="7">
-        <v>692990</v>
-      </c>
-      <c r="O35" s="7">
-        <v>10231516</v>
-      </c>
-      <c r="P35" s="7">
-        <v>2259973</v>
-      </c>
-      <c r="Q35" s="7">
-        <v>1881704</v>
-      </c>
-      <c r="R35" s="7">
-        <v>1394845</v>
-      </c>
-      <c r="S35" s="7">
-        <v>3354164</v>
-      </c>
-      <c r="T35" s="7">
-        <v>3676068</v>
-      </c>
-      <c r="U35" s="7">
-        <v>795131</v>
-      </c>
-      <c r="V35" s="7">
-        <v>3019286</v>
-      </c>
-      <c r="W35" s="7">
-        <v>4599882</v>
-      </c>
-      <c r="X35" s="7">
-        <v>6168265</v>
-      </c>
-      <c r="Y35" s="7">
-        <v>3711538</v>
-      </c>
-      <c r="Z35" s="7">
-        <v>2137657</v>
-      </c>
-      <c r="AA35" s="7">
-        <v>3520125</v>
-      </c>
-      <c r="AB35" s="7">
-        <v>627698</v>
-      </c>
-      <c r="AC35" s="7">
-        <v>509367</v>
-      </c>
-      <c r="AD35" s="7">
-        <v>1707446</v>
-      </c>
-      <c r="AE35" s="7">
-        <v>601784</v>
-      </c>
-      <c r="AF35" s="7">
-        <v>9009508</v>
-      </c>
-      <c r="AG35" s="7">
-        <v>1775173</v>
-      </c>
-      <c r="AH35" s="7">
-        <v>15661254</v>
-      </c>
-      <c r="AI35" s="7">
-        <v>4914733</v>
-      </c>
-      <c r="AJ35" s="7">
-        <v>249723</v>
-      </c>
-      <c r="AK35" s="7">
-        <v>13244997</v>
-      </c>
-      <c r="AL35" s="7">
-        <v>1935768</v>
-      </c>
-      <c r="AM35" s="7">
-        <v>3573500</v>
-      </c>
-      <c r="AN35" s="7">
-        <v>8720658</v>
-      </c>
-      <c r="AO35" s="7">
-        <v>914772</v>
-      </c>
-      <c r="AP35" s="7">
-        <v>3025971</v>
-      </c>
-      <c r="AQ35" s="7">
-        <v>426612</v>
-      </c>
-      <c r="AR35" s="7">
-        <v>1958222</v>
-      </c>
-      <c r="AS35" s="7">
-        <v>12670049</v>
-      </c>
-      <c r="AT35" s="7">
-        <v>1158491</v>
-      </c>
-      <c r="AU35" s="7">
-        <v>247467</v>
-      </c>
-      <c r="AV35" s="7">
-        <v>3754079</v>
-      </c>
-      <c r="AW35" s="7">
-        <v>3303199</v>
-      </c>
-      <c r="AX35" s="7">
-        <v>990402</v>
-      </c>
-      <c r="AY35" s="7">
-        <v>4234714</v>
-      </c>
-      <c r="AZ35" s="7">
-        <v>437442</v>
-      </c>
-    </row>
-    <row r="36" spans="1:52" ht="12" customHeight="1">
-      <c r="A36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="6">
-        <v>10894581</v>
-      </c>
-      <c r="C36" s="8">
-        <v>0</v>
-      </c>
-      <c r="D36" s="7">
-        <v>4605</v>
-      </c>
-      <c r="E36" s="7">
-        <v>151475</v>
-      </c>
-      <c r="F36" s="7">
-        <v>16152</v>
-      </c>
-      <c r="G36" s="7">
-        <v>1494297</v>
-      </c>
-      <c r="H36" s="7">
-        <v>435372</v>
-      </c>
-      <c r="I36" s="7">
-        <v>30908</v>
-      </c>
-      <c r="J36" s="7">
-        <v>6266</v>
-      </c>
-      <c r="K36" s="7">
-        <v>131253</v>
-      </c>
-      <c r="L36" s="8">
-        <v>0</v>
-      </c>
-      <c r="M36" s="8">
-        <v>0</v>
-      </c>
-      <c r="N36" s="7">
-        <v>119322</v>
-      </c>
-      <c r="O36" s="7">
-        <v>12599</v>
-      </c>
-      <c r="P36" s="7">
-        <v>5799</v>
-      </c>
-      <c r="Q36" s="7">
-        <v>5565</v>
-      </c>
-      <c r="R36" s="7">
-        <v>4577</v>
-      </c>
-      <c r="S36" s="7">
-        <v>177365</v>
-      </c>
-      <c r="T36" s="7">
-        <v>64494</v>
-      </c>
-      <c r="U36" s="8">
-        <v>0</v>
-      </c>
-      <c r="V36" s="7">
-        <v>183064</v>
-      </c>
-      <c r="W36" s="7">
-        <v>48558</v>
-      </c>
-      <c r="X36" s="7">
-        <v>12904</v>
-      </c>
-      <c r="Y36" s="7">
-        <v>57290</v>
-      </c>
-      <c r="Z36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="7">
-        <v>42494</v>
-      </c>
-      <c r="AB36" s="7">
-        <v>114644</v>
-      </c>
-      <c r="AC36" s="7">
-        <v>1078</v>
-      </c>
-      <c r="AD36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="7">
-        <v>195227</v>
-      </c>
-      <c r="AG36" s="7">
-        <v>17017</v>
-      </c>
-      <c r="AH36" s="7">
-        <v>2351254</v>
-      </c>
-      <c r="AI36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="7">
-        <v>272289</v>
-      </c>
-      <c r="AK36" s="7">
-        <v>1136718</v>
-      </c>
-      <c r="AL36" s="7">
-        <v>222646</v>
-      </c>
-      <c r="AM36" s="7">
-        <v>346814</v>
-      </c>
-      <c r="AN36" s="7">
-        <v>353359</v>
-      </c>
-      <c r="AO36" s="7">
-        <v>1919</v>
-      </c>
-      <c r="AP36" s="7">
-        <v>114290</v>
-      </c>
-      <c r="AQ36" s="7">
-        <v>1610</v>
-      </c>
-      <c r="AR36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AS36" s="7">
-        <v>323656</v>
-      </c>
-      <c r="AT36" s="7">
-        <v>188979</v>
-      </c>
-      <c r="AU36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV36" s="7">
-        <v>4044</v>
-      </c>
-      <c r="AW36" s="7">
-        <v>1986098</v>
-      </c>
-      <c r="AX36" s="7">
-        <v>90217</v>
-      </c>
-      <c r="AY36" s="7">
-        <v>2697</v>
-      </c>
-      <c r="AZ36" s="7">
-        <v>165666</v>
-      </c>
-    </row>
-    <row r="37" spans="1:52" ht="12" customHeight="1">
-      <c r="A37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="6">
-        <v>6916693</v>
-      </c>
-      <c r="C37" s="8">
-        <v>0</v>
-      </c>
-      <c r="D37" s="8">
-        <v>0</v>
-      </c>
-      <c r="E37" s="8">
-        <v>0</v>
-      </c>
-      <c r="F37" s="8">
-        <v>0</v>
-      </c>
-      <c r="G37" s="7">
-        <v>4857043</v>
-      </c>
-      <c r="H37" s="7">
-        <v>112818</v>
-      </c>
-      <c r="I37" s="8">
-        <v>0</v>
-      </c>
-      <c r="J37" s="8">
-        <v>0</v>
-      </c>
-      <c r="K37" s="8">
-        <v>0</v>
-      </c>
-      <c r="L37" s="7">
-        <v>99262</v>
-      </c>
-      <c r="M37" s="8">
-        <v>0</v>
-      </c>
-      <c r="N37" s="8">
-        <v>0</v>
-      </c>
-      <c r="O37" s="7">
-        <v>52546</v>
-      </c>
-      <c r="P37" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="8">
-        <v>0</v>
-      </c>
-      <c r="R37" s="8">
-        <v>0</v>
-      </c>
-      <c r="S37" s="8">
-        <v>0</v>
-      </c>
-      <c r="T37" s="7">
-        <v>159225</v>
-      </c>
-      <c r="U37" s="8">
-        <v>0</v>
-      </c>
-      <c r="V37" s="7">
-        <v>45136</v>
-      </c>
-      <c r="W37" s="7">
-        <v>864090</v>
-      </c>
-      <c r="X37" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="7">
-        <v>12950</v>
-      </c>
-      <c r="AC37" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="7">
-        <v>523596</v>
-      </c>
-      <c r="AG37" s="7">
-        <v>26378</v>
-      </c>
-      <c r="AH37" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI37" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK37" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL37" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM37" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN37" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO37" s="7">
-        <v>163649</v>
-      </c>
-      <c r="AP37" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ37" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR37" s="8">
-        <v>0</v>
-      </c>
-      <c r="AS37" s="8">
-        <v>0</v>
-      </c>
-      <c r="AT37" s="8">
-        <v>0</v>
-      </c>
-      <c r="AU37" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV37" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW37" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX37" s="8">
-        <v>0</v>
-      </c>
-      <c r="AY37" s="8">
-        <v>0</v>
-      </c>
-      <c r="AZ37" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:52">
-      <c r="B38" s="3"/>
-      <c r="G38" s="3"/>
+    <row r="35" spans="1:52">
+      <c r="B35" s="3"/>
+      <c r="G35" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
